--- a/columns_recoded_demographics/english_in_italy_cleaned.csv.xlsx
+++ b/columns_recoded_demographics/english_in_italy_cleaned.csv.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">english_in_italy_cleaned.csv!$BZ$1:$BZ$116</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6713" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6726" uniqueCount="579">
   <si>
     <t>Resp.ID</t>
   </si>
@@ -1773,6 +1773,15 @@
   </si>
   <si>
     <t>other.year.studyL2.richi</t>
+  </si>
+  <si>
+    <t>other.year.studyL2.reduced</t>
+  </si>
+  <si>
+    <t>PRIMARY</t>
+  </si>
+  <si>
+    <t>SECONDARY</t>
   </si>
 </sst>
 </file>
@@ -1782,7 +1791,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1796,6 +1805,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1834,8 +1849,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1848,7 +1866,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2178,20 +2199,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CR116"/>
+  <dimension ref="A1:CS116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BS96" workbookViewId="0">
-      <selection activeCell="BZ130" sqref="BZ130"/>
+    <sheetView tabSelected="1" topLeftCell="BS1" workbookViewId="0">
+      <selection activeCell="BZ117" sqref="BZ117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="78" max="78" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="18.5" customWidth="1"/>
-    <col min="88" max="88" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="18.5" customWidth="1"/>
+    <col min="89" max="89" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" ht="15.75" customHeight="1">
+    <row r="1" spans="1:97" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2424,64 +2445,67 @@
         <v>74</v>
       </c>
       <c r="BZ1" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="CA1" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CG1" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CO1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CP1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="CR1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CR1" s="2" t="s">
+      <c r="CS1" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:96" ht="15.75" customHeight="1">
+    <row r="2" spans="1:97" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>5180402960</v>
       </c>
@@ -2708,9 +2732,7 @@
         <v>96</v>
       </c>
       <c r="BZ2" s="4"/>
-      <c r="CA2" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA2" s="4"/>
       <c r="CB2" s="2">
         <v>0</v>
       </c>
@@ -2720,13 +2742,13 @@
       <c r="CD2" s="2">
         <v>0</v>
       </c>
-      <c r="CE2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF2" s="4"/>
-      <c r="CG2" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="CE2" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG2" s="4"/>
       <c r="CH2" s="2" t="s">
         <v>96</v>
       </c>
@@ -2758,10 +2780,13 @@
         <v>96</v>
       </c>
       <c r="CR2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS2" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:96" ht="15.75" customHeight="1">
+    <row r="3" spans="1:97" ht="15.75" customHeight="1">
       <c r="A3" s="2">
         <v>5167813082</v>
       </c>
@@ -2990,9 +3015,7 @@
         <v>96</v>
       </c>
       <c r="BZ3" s="4"/>
-      <c r="CA3" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA3" s="4"/>
       <c r="CB3" s="2">
         <v>0</v>
       </c>
@@ -3002,33 +3025,33 @@
       <c r="CD3" s="2">
         <v>0</v>
       </c>
-      <c r="CE3" s="2" t="s">
+      <c r="CE3" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="CF3" s="4" t="s">
+      <c r="CG3" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="CG3" s="2" t="s">
+      <c r="CH3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH3" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ3" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL3" s="2" t="s">
+      <c r="CM3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="CM3" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN3" s="2" t="s">
         <v>96</v>
       </c>
@@ -3042,10 +3065,13 @@
         <v>96</v>
       </c>
       <c r="CR3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS3" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:96" ht="15.75" customHeight="1">
+    <row r="4" spans="1:97" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>5167635302</v>
       </c>
@@ -3272,9 +3298,7 @@
         <v>96</v>
       </c>
       <c r="BZ4" s="4"/>
-      <c r="CA4" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA4" s="4"/>
       <c r="CB4" s="2">
         <v>0</v>
       </c>
@@ -3284,13 +3308,13 @@
       <c r="CD4" s="2">
         <v>0</v>
       </c>
-      <c r="CE4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF4" s="4"/>
-      <c r="CG4" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="CE4" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG4" s="4"/>
       <c r="CH4" s="2" t="s">
         <v>96</v>
       </c>
@@ -3322,10 +3346,13 @@
         <v>96</v>
       </c>
       <c r="CR4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS4" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:96" ht="15.75" customHeight="1">
+    <row r="5" spans="1:97" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>5166861581</v>
       </c>
@@ -3552,60 +3579,61 @@
         <v>96</v>
       </c>
       <c r="BZ5" s="4"/>
-      <c r="CA5" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA5" s="4"/>
       <c r="CB5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD5" s="2">
         <v>0</v>
       </c>
-      <c r="CE5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF5" s="4"/>
-      <c r="CG5" s="2" t="s">
+      <c r="CE5" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG5" s="4"/>
+      <c r="CH5" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH5" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ5" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ5" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL5" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL5" s="2" t="s">
+      <c r="CM5" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="CM5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN5" s="2">
-        <v>1</v>
+      <c r="CN5" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP5" s="2">
         <v>0</v>
       </c>
-      <c r="CQ5" s="2" t="s">
-        <v>96</v>
+      <c r="CQ5" s="2">
+        <v>0</v>
       </c>
       <c r="CR5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS5" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:96" ht="15.75" customHeight="1">
+    <row r="6" spans="1:97" ht="15.75" customHeight="1">
       <c r="A6" s="2">
         <v>5165129736</v>
       </c>
@@ -3832,43 +3860,41 @@
         <v>96</v>
       </c>
       <c r="BZ6" s="4"/>
-      <c r="CA6" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA6" s="4"/>
       <c r="CB6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD6" s="2">
         <v>0</v>
       </c>
-      <c r="CE6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF6" s="4"/>
-      <c r="CG6" s="2" t="s">
+      <c r="CE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG6" s="4"/>
+      <c r="CH6" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH6" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ6" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ6" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL6" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL6" s="2" t="s">
+      <c r="CM6" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM6" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN6" s="2" t="s">
         <v>96</v>
       </c>
@@ -3882,10 +3908,13 @@
         <v>96</v>
       </c>
       <c r="CR6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS6" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:96" ht="15.75" customHeight="1">
+    <row r="7" spans="1:97" ht="15.75" customHeight="1">
       <c r="A7" s="2">
         <v>5164610082</v>
       </c>
@@ -4114,60 +4143,61 @@
         <v>96</v>
       </c>
       <c r="BZ7" s="4"/>
-      <c r="CA7" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA7" s="4"/>
       <c r="CB7" s="2">
         <v>0</v>
       </c>
       <c r="CC7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CE7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF7" s="4"/>
-      <c r="CG7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CE7" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG7" s="4"/>
+      <c r="CH7" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH7" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ7" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL7" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL7" s="2" t="s">
+      <c r="CM7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="CM7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN7" s="2">
-        <v>1</v>
+      <c r="CN7" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP7" s="2">
         <v>0</v>
       </c>
-      <c r="CQ7" s="2" t="s">
-        <v>96</v>
+      <c r="CQ7" s="2">
+        <v>0</v>
       </c>
       <c r="CR7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS7" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:96" ht="15.75" customHeight="1">
+    <row r="8" spans="1:97" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>5164608523</v>
       </c>
@@ -4394,9 +4424,7 @@
         <v>96</v>
       </c>
       <c r="BZ8" s="4"/>
-      <c r="CA8" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA8" s="4"/>
       <c r="CB8" s="2">
         <v>0</v>
       </c>
@@ -4406,13 +4434,13 @@
       <c r="CD8" s="2">
         <v>0</v>
       </c>
-      <c r="CE8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF8" s="4"/>
-      <c r="CG8" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="CE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG8" s="4"/>
       <c r="CH8" s="2" t="s">
         <v>96</v>
       </c>
@@ -4444,10 +4472,13 @@
         <v>96</v>
       </c>
       <c r="CR8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS8" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:96" ht="15.75" customHeight="1">
+    <row r="9" spans="1:97" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>5164348139</v>
       </c>
@@ -4676,9 +4707,7 @@
         <v>96</v>
       </c>
       <c r="BZ9" s="4"/>
-      <c r="CA9" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA9" s="4"/>
       <c r="CB9" s="2">
         <v>0</v>
       </c>
@@ -4688,50 +4717,53 @@
       <c r="CD9" s="2">
         <v>0</v>
       </c>
-      <c r="CE9" s="2" t="s">
+      <c r="CE9" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="CF9" s="4" t="s">
+      <c r="CG9" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="CG9" s="2" t="s">
+      <c r="CH9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH9" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ9" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ9" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL9" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL9" s="2" t="s">
+      <c r="CM9" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="CM9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN9" s="2">
-        <v>0</v>
+      <c r="CN9" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO9" s="2">
         <v>0</v>
       </c>
       <c r="CP9" s="2">
-        <v>1</v>
-      </c>
-      <c r="CQ9" s="2" t="s">
-        <v>96</v>
+        <v>0</v>
+      </c>
+      <c r="CQ9" s="2">
+        <v>1</v>
       </c>
       <c r="CR9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS9" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:96" ht="15.75" customHeight="1">
+    <row r="10" spans="1:97" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>5164340354</v>
       </c>
@@ -4960,13 +4992,13 @@
         <v>146</v>
       </c>
       <c r="BZ10" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="CA10" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="CA10" s="2">
-        <v>1</v>
-      </c>
       <c r="CB10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC10" s="2">
         <v>0</v>
@@ -4974,48 +5006,51 @@
       <c r="CD10" s="2">
         <v>0</v>
       </c>
-      <c r="CE10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF10" s="4"/>
-      <c r="CG10" s="2" t="s">
+      <c r="CE10" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG10" s="4"/>
+      <c r="CH10" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH10" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ10" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL10" s="2" t="s">
+      <c r="CM10" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN10" s="2">
-        <v>1</v>
+      <c r="CN10" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP10" s="2">
         <v>0</v>
       </c>
-      <c r="CQ10" s="2" t="s">
-        <v>96</v>
+      <c r="CQ10" s="2">
+        <v>0</v>
       </c>
       <c r="CR10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS10" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:96" ht="15.75" customHeight="1">
+    <row r="11" spans="1:97" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>5163046515</v>
       </c>
@@ -5242,9 +5277,7 @@
         <v>96</v>
       </c>
       <c r="BZ11" s="4"/>
-      <c r="CA11" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA11" s="4"/>
       <c r="CB11" s="2">
         <v>0</v>
       </c>
@@ -5254,13 +5287,13 @@
       <c r="CD11" s="2">
         <v>0</v>
       </c>
-      <c r="CE11" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF11" s="4"/>
-      <c r="CG11" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="CE11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG11" s="4"/>
       <c r="CH11" s="2" t="s">
         <v>96</v>
       </c>
@@ -5292,10 +5325,13 @@
         <v>96</v>
       </c>
       <c r="CR11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS11" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:96" ht="15.75" customHeight="1">
+    <row r="12" spans="1:97" ht="15.75" customHeight="1">
       <c r="A12" s="2">
         <v>5160747354</v>
       </c>
@@ -5522,9 +5558,7 @@
         <v>96</v>
       </c>
       <c r="BZ12" s="4"/>
-      <c r="CA12" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA12" s="4"/>
       <c r="CB12" s="2">
         <v>0</v>
       </c>
@@ -5534,13 +5568,13 @@
       <c r="CD12" s="2">
         <v>0</v>
       </c>
-      <c r="CE12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF12" s="4"/>
-      <c r="CG12" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="CE12" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG12" s="4"/>
       <c r="CH12" s="2" t="s">
         <v>96</v>
       </c>
@@ -5572,10 +5606,13 @@
         <v>96</v>
       </c>
       <c r="CR12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS12" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:96" ht="15.75" customHeight="1">
+    <row r="13" spans="1:97" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>5159673773</v>
       </c>
@@ -5802,9 +5839,7 @@
         <v>96</v>
       </c>
       <c r="BZ13" s="4"/>
-      <c r="CA13" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA13" s="4"/>
       <c r="CB13" s="2">
         <v>0</v>
       </c>
@@ -5814,13 +5849,13 @@
       <c r="CD13" s="2">
         <v>0</v>
       </c>
-      <c r="CE13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF13" s="4"/>
-      <c r="CG13" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="CE13" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG13" s="4"/>
       <c r="CH13" s="2" t="s">
         <v>96</v>
       </c>
@@ -5852,10 +5887,13 @@
         <v>96</v>
       </c>
       <c r="CR13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS13" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:96" ht="15.75" customHeight="1">
+    <row r="14" spans="1:97" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>5157765798</v>
       </c>
@@ -6084,60 +6122,61 @@
         <v>96</v>
       </c>
       <c r="BZ14" s="4"/>
-      <c r="CA14" s="2">
-        <v>1</v>
-      </c>
+      <c r="CA14" s="4"/>
       <c r="CB14" s="2">
         <v>1</v>
       </c>
       <c r="CC14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD14" s="2">
         <v>0</v>
       </c>
-      <c r="CE14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF14" s="4"/>
-      <c r="CG14" s="2" t="s">
+      <c r="CE14" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG14" s="4"/>
+      <c r="CH14" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH14" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ14" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ14" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL14" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL14" s="2" t="s">
+      <c r="CM14" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="CM14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN14" s="2">
-        <v>1</v>
+      <c r="CN14" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP14" s="2">
         <v>0</v>
       </c>
-      <c r="CQ14" s="2" t="s">
-        <v>96</v>
+      <c r="CQ14" s="2">
+        <v>0</v>
       </c>
       <c r="CR14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS14" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:96" ht="15.75" customHeight="1">
+    <row r="15" spans="1:97" ht="15.75" customHeight="1">
       <c r="A15" s="2">
         <v>5153213207</v>
       </c>
@@ -6368,9 +6407,7 @@
         <v>96</v>
       </c>
       <c r="BZ15" s="4"/>
-      <c r="CA15" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA15" s="4"/>
       <c r="CB15" s="2">
         <v>0</v>
       </c>
@@ -6380,48 +6417,51 @@
       <c r="CD15" s="2">
         <v>0</v>
       </c>
-      <c r="CE15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF15" s="4"/>
-      <c r="CG15" s="2" t="s">
+      <c r="CE15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG15" s="4"/>
+      <c r="CH15" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="CH15" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ15" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL15" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL15" s="2" t="s">
+      <c r="CM15" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN15" s="2">
-        <v>1</v>
+      <c r="CN15" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP15" s="2">
         <v>0</v>
       </c>
-      <c r="CQ15" s="2" t="s">
-        <v>96</v>
+      <c r="CQ15" s="2">
+        <v>0</v>
       </c>
       <c r="CR15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS15" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:96" ht="15.75" customHeight="1">
+    <row r="16" spans="1:97" ht="15.75" customHeight="1">
       <c r="A16" s="2">
         <v>5153210826</v>
       </c>
@@ -6648,60 +6688,61 @@
         <v>96</v>
       </c>
       <c r="BZ16" s="4"/>
-      <c r="CA16" s="2">
-        <v>1</v>
-      </c>
+      <c r="CA16" s="4"/>
       <c r="CB16" s="2">
         <v>1</v>
       </c>
       <c r="CC16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD16" s="2">
         <v>0</v>
       </c>
-      <c r="CE16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF16" s="4"/>
-      <c r="CG16" s="2" t="s">
+      <c r="CE16" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG16" s="4"/>
+      <c r="CH16" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="CH16" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ16" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ16" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL16" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL16" s="2" t="s">
+      <c r="CM16" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN16" s="2">
-        <v>1</v>
+      <c r="CN16" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP16" s="2">
         <v>0</v>
       </c>
-      <c r="CQ16" s="2" t="s">
-        <v>96</v>
+      <c r="CQ16" s="2">
+        <v>0</v>
       </c>
       <c r="CR16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS16" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:96" ht="15.75" customHeight="1">
+    <row r="17" spans="1:97" ht="15.75" customHeight="1">
       <c r="A17" s="2">
         <v>5153205602</v>
       </c>
@@ -6934,9 +6975,7 @@
         <v>96</v>
       </c>
       <c r="BZ17" s="4"/>
-      <c r="CA17" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA17" s="4"/>
       <c r="CB17" s="2">
         <v>0</v>
       </c>
@@ -6946,33 +6985,33 @@
       <c r="CD17" s="2">
         <v>0</v>
       </c>
-      <c r="CE17" s="2" t="s">
+      <c r="CE17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF17" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="CF17" s="4" t="s">
+      <c r="CG17" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="CG17" s="2" t="s">
+      <c r="CH17" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH17" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ17" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ17" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL17" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL17" s="2" t="s">
+      <c r="CM17" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="CM17" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN17" s="2" t="s">
         <v>96</v>
       </c>
@@ -6986,10 +7025,13 @@
         <v>96</v>
       </c>
       <c r="CR17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS17" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:96" ht="15.75" customHeight="1">
+    <row r="18" spans="1:97" ht="15.75" customHeight="1">
       <c r="A18" s="2">
         <v>5153200048</v>
       </c>
@@ -7216,43 +7258,41 @@
         <v>96</v>
       </c>
       <c r="BZ18" s="4"/>
-      <c r="CA18" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA18" s="4"/>
       <c r="CB18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="2">
         <v>1</v>
       </c>
       <c r="CD18" s="2">
-        <v>0</v>
-      </c>
-      <c r="CE18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF18" s="4"/>
-      <c r="CG18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CE18" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG18" s="4"/>
+      <c r="CH18" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH18" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ18" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ18" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL18" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL18" s="2" t="s">
+      <c r="CM18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="CM18" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN18" s="2" t="s">
         <v>96</v>
       </c>
@@ -7266,10 +7306,13 @@
         <v>96</v>
       </c>
       <c r="CR18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS18" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:96" ht="15.75" customHeight="1">
+    <row r="19" spans="1:97" ht="15.75" customHeight="1">
       <c r="A19" s="2">
         <v>5153188471</v>
       </c>
@@ -7496,9 +7539,7 @@
         <v>96</v>
       </c>
       <c r="BZ19" s="4"/>
-      <c r="CA19" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA19" s="4"/>
       <c r="CB19" s="2">
         <v>0</v>
       </c>
@@ -7508,13 +7549,13 @@
       <c r="CD19" s="2">
         <v>0</v>
       </c>
-      <c r="CE19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF19" s="4"/>
-      <c r="CG19" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="CE19" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG19" s="4"/>
       <c r="CH19" s="2" t="s">
         <v>96</v>
       </c>
@@ -7546,10 +7587,13 @@
         <v>96</v>
       </c>
       <c r="CR19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS19" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:96" ht="15.75" customHeight="1">
+    <row r="20" spans="1:97" ht="15.75" customHeight="1">
       <c r="A20" s="2">
         <v>5153175470</v>
       </c>
@@ -7776,9 +7820,7 @@
         <v>96</v>
       </c>
       <c r="BZ20" s="4"/>
-      <c r="CA20" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA20" s="4"/>
       <c r="CB20" s="2">
         <v>0</v>
       </c>
@@ -7788,48 +7830,51 @@
       <c r="CD20" s="2">
         <v>0</v>
       </c>
-      <c r="CE20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF20" s="4"/>
-      <c r="CG20" s="2" t="s">
+      <c r="CE20" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG20" s="4"/>
+      <c r="CH20" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH20" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ20" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ20" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL20" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL20" s="2" t="s">
+      <c r="CM20" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN20" s="2">
-        <v>1</v>
+      <c r="CN20" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP20" s="2">
         <v>0</v>
       </c>
-      <c r="CQ20" s="2" t="s">
-        <v>96</v>
+      <c r="CQ20" s="2">
+        <v>0</v>
       </c>
       <c r="CR20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS20" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:96" ht="15.75" customHeight="1">
+    <row r="21" spans="1:97" ht="15.75" customHeight="1">
       <c r="A21" s="2">
         <v>5153168521</v>
       </c>
@@ -8056,60 +8101,61 @@
         <v>96</v>
       </c>
       <c r="BZ21" s="4"/>
-      <c r="CA21" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA21" s="4"/>
       <c r="CB21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD21" s="2">
         <v>0</v>
       </c>
-      <c r="CE21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF21" s="4"/>
-      <c r="CG21" s="2" t="s">
+      <c r="CE21" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG21" s="4"/>
+      <c r="CH21" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH21" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ21" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ21" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL21" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL21" s="2" t="s">
+      <c r="CM21" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN21" s="2">
-        <v>1</v>
+      <c r="CN21" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP21" s="2">
         <v>0</v>
       </c>
-      <c r="CQ21" s="2" t="s">
-        <v>96</v>
+      <c r="CQ21" s="2">
+        <v>0</v>
       </c>
       <c r="CR21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS21" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:96" ht="15.75" customHeight="1">
+    <row r="22" spans="1:97" ht="15.75" customHeight="1">
       <c r="A22" s="2">
         <v>5153162888</v>
       </c>
@@ -8336,9 +8382,7 @@
         <v>96</v>
       </c>
       <c r="BZ22" s="4"/>
-      <c r="CA22" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA22" s="4"/>
       <c r="CB22" s="2">
         <v>0</v>
       </c>
@@ -8348,33 +8392,33 @@
       <c r="CD22" s="2">
         <v>0</v>
       </c>
-      <c r="CE22" s="2" t="s">
+      <c r="CE22" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF22" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="CF22" s="4" t="s">
+      <c r="CG22" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="CG22" s="2" t="s">
+      <c r="CH22" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH22" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ22" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ22" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL22" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL22" s="2" t="s">
+      <c r="CM22" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="CM22" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN22" s="2" t="s">
         <v>96</v>
       </c>
@@ -8388,10 +8432,13 @@
         <v>96</v>
       </c>
       <c r="CR22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS22" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:96" ht="15.75" customHeight="1">
+    <row r="23" spans="1:97" ht="15.75" customHeight="1">
       <c r="A23" s="2">
         <v>5153158166</v>
       </c>
@@ -8622,9 +8669,7 @@
         <v>96</v>
       </c>
       <c r="BZ23" s="4"/>
-      <c r="CA23" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA23" s="4"/>
       <c r="CB23" s="2">
         <v>0</v>
       </c>
@@ -8634,33 +8679,33 @@
       <c r="CD23" s="2">
         <v>0</v>
       </c>
-      <c r="CE23" s="2" t="s">
+      <c r="CE23" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF23" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="CF23" s="4" t="s">
+      <c r="CG23" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="CG23" s="2" t="s">
+      <c r="CH23" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH23" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ23" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ23" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL23" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL23" s="2" t="s">
+      <c r="CM23" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="CM23" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN23" s="2" t="s">
         <v>96</v>
       </c>
@@ -8674,10 +8719,13 @@
         <v>96</v>
       </c>
       <c r="CR23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS23" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:96" ht="15.75" customHeight="1">
+    <row r="24" spans="1:97" ht="15.75" customHeight="1">
       <c r="A24" s="2">
         <v>5153148154</v>
       </c>
@@ -8904,60 +8952,61 @@
         <v>96</v>
       </c>
       <c r="BZ24" s="4"/>
-      <c r="CA24" s="2">
-        <v>1</v>
-      </c>
+      <c r="CA24" s="4"/>
       <c r="CB24" s="2">
         <v>1</v>
       </c>
       <c r="CC24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD24" s="2">
         <v>0</v>
       </c>
-      <c r="CE24" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF24" s="4"/>
-      <c r="CG24" s="2" t="s">
+      <c r="CE24" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG24" s="4"/>
+      <c r="CH24" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH24" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ24" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ24" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL24" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL24" s="2" t="s">
+      <c r="CM24" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM24" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN24" s="2">
-        <v>1</v>
+      <c r="CN24" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP24" s="2">
         <v>0</v>
       </c>
-      <c r="CQ24" s="2" t="s">
-        <v>96</v>
+      <c r="CQ24" s="2">
+        <v>0</v>
       </c>
       <c r="CR24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS24" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:96" ht="15.75" customHeight="1">
+    <row r="25" spans="1:97" ht="15.75" customHeight="1">
       <c r="A25" s="2">
         <v>5153143112</v>
       </c>
@@ -9184,60 +9233,61 @@
         <v>96</v>
       </c>
       <c r="BZ25" s="4"/>
-      <c r="CA25" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA25" s="4"/>
       <c r="CB25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD25" s="2">
         <v>0</v>
       </c>
-      <c r="CE25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF25" s="4"/>
-      <c r="CG25" s="2" t="s">
+      <c r="CE25" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG25" s="4"/>
+      <c r="CH25" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH25" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ25" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ25" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL25" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL25" s="2" t="s">
+      <c r="CM25" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="CM25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN25" s="2">
-        <v>1</v>
+      <c r="CN25" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP25" s="2">
         <v>0</v>
       </c>
-      <c r="CQ25" s="2" t="s">
-        <v>96</v>
+      <c r="CQ25" s="2">
+        <v>0</v>
       </c>
       <c r="CR25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS25" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:96" ht="15.75" customHeight="1">
+    <row r="26" spans="1:97" ht="15.75" customHeight="1">
       <c r="A26" s="2">
         <v>5153138074</v>
       </c>
@@ -9464,60 +9514,61 @@
         <v>96</v>
       </c>
       <c r="BZ26" s="4"/>
-      <c r="CA26" s="2">
-        <v>1</v>
-      </c>
+      <c r="CA26" s="4"/>
       <c r="CB26" s="2">
         <v>1</v>
       </c>
       <c r="CC26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD26" s="2">
         <v>0</v>
       </c>
-      <c r="CE26" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF26" s="4"/>
-      <c r="CG26" s="2" t="s">
+      <c r="CE26" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG26" s="4"/>
+      <c r="CH26" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH26" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ26" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ26" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL26" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL26" s="2" t="s">
+      <c r="CM26" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM26" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN26" s="2">
-        <v>1</v>
+      <c r="CN26" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP26" s="2">
         <v>0</v>
       </c>
-      <c r="CQ26" s="2" t="s">
-        <v>96</v>
+      <c r="CQ26" s="2">
+        <v>0</v>
       </c>
       <c r="CR26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS26" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:96" ht="15.75" customHeight="1">
+    <row r="27" spans="1:97" ht="15.75" customHeight="1">
       <c r="A27" s="2">
         <v>5153133342</v>
       </c>
@@ -9744,43 +9795,41 @@
         <v>96</v>
       </c>
       <c r="BZ27" s="4"/>
-      <c r="CA27" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA27" s="4"/>
       <c r="CB27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD27" s="2">
         <v>0</v>
       </c>
-      <c r="CE27" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF27" s="4"/>
-      <c r="CG27" s="2" t="s">
+      <c r="CE27" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG27" s="4"/>
+      <c r="CH27" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH27" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ27" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ27" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL27" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL27" s="2" t="s">
+      <c r="CM27" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="CM27" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN27" s="2" t="s">
         <v>96</v>
       </c>
@@ -9794,10 +9843,13 @@
         <v>96</v>
       </c>
       <c r="CR27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS27" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:96" ht="15.75" customHeight="1">
+    <row r="28" spans="1:97" ht="15.75" customHeight="1">
       <c r="A28" s="2">
         <v>5153054479</v>
       </c>
@@ -10024,9 +10076,7 @@
         <v>96</v>
       </c>
       <c r="BZ28" s="4"/>
-      <c r="CA28" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA28" s="4"/>
       <c r="CB28" s="2">
         <v>0</v>
       </c>
@@ -10036,33 +10086,33 @@
       <c r="CD28" s="2">
         <v>0</v>
       </c>
-      <c r="CE28" s="2" t="s">
+      <c r="CE28" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF28" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="CF28" s="4" t="s">
+      <c r="CG28" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="CG28" s="2" t="s">
+      <c r="CH28" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH28" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ28" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ28" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL28" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL28" s="2" t="s">
+      <c r="CM28" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM28" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN28" s="2" t="s">
         <v>96</v>
       </c>
@@ -10076,10 +10126,13 @@
         <v>96</v>
       </c>
       <c r="CR28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS28" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:96" ht="15.75" customHeight="1">
+    <row r="29" spans="1:97" ht="15.75" customHeight="1">
       <c r="A29" s="2">
         <v>5153050341</v>
       </c>
@@ -10308,60 +10361,61 @@
         <v>96</v>
       </c>
       <c r="BZ29" s="4"/>
-      <c r="CA29" s="2">
-        <v>1</v>
-      </c>
+      <c r="CA29" s="4"/>
       <c r="CB29" s="2">
         <v>1</v>
       </c>
       <c r="CC29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD29" s="2">
         <v>0</v>
       </c>
-      <c r="CE29" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF29" s="4"/>
-      <c r="CG29" s="2" t="s">
+      <c r="CE29" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG29" s="4"/>
+      <c r="CH29" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH29" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ29" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ29" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL29" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL29" s="2" t="s">
+      <c r="CM29" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM29" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN29" s="2">
-        <v>0</v>
+      <c r="CN29" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO29" s="2">
         <v>0</v>
       </c>
       <c r="CP29" s="2">
-        <v>1</v>
-      </c>
-      <c r="CQ29" s="2" t="s">
-        <v>96</v>
+        <v>0</v>
+      </c>
+      <c r="CQ29" s="2">
+        <v>1</v>
       </c>
       <c r="CR29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS29" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:96" ht="15.75" customHeight="1">
+    <row r="30" spans="1:97" ht="15.75" customHeight="1">
       <c r="A30" s="2">
         <v>5153046281</v>
       </c>
@@ -10590,9 +10644,7 @@
         <v>96</v>
       </c>
       <c r="BZ30" s="4"/>
-      <c r="CA30" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA30" s="4"/>
       <c r="CB30" s="2">
         <v>0</v>
       </c>
@@ -10602,33 +10654,33 @@
       <c r="CD30" s="2">
         <v>0</v>
       </c>
-      <c r="CE30" s="2" t="s">
+      <c r="CE30" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF30" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="CF30" s="4" t="s">
+      <c r="CG30" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="CG30" s="2" t="s">
+      <c r="CH30" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH30" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ30" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ30" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL30" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL30" s="2" t="s">
+      <c r="CM30" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="CM30" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN30" s="2" t="s">
         <v>96</v>
       </c>
@@ -10642,10 +10694,13 @@
         <v>96</v>
       </c>
       <c r="CR30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS30" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:96" ht="15.75" customHeight="1">
+    <row r="31" spans="1:97" ht="15.75" customHeight="1">
       <c r="A31" s="2">
         <v>5153042847</v>
       </c>
@@ -10876,43 +10931,41 @@
         <v>96</v>
       </c>
       <c r="BZ31" s="4"/>
-      <c r="CA31" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA31" s="4"/>
       <c r="CB31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD31" s="2">
         <v>0</v>
       </c>
-      <c r="CE31" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF31" s="4"/>
-      <c r="CG31" s="2" t="s">
+      <c r="CE31" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG31" s="4"/>
+      <c r="CH31" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH31" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ31" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ31" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL31" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL31" s="2" t="s">
+      <c r="CM31" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM31" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN31" s="2" t="s">
         <v>96</v>
       </c>
@@ -10926,10 +10979,13 @@
         <v>96</v>
       </c>
       <c r="CR31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS31" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:96" ht="15.75" customHeight="1">
+    <row r="32" spans="1:97" ht="15.75" customHeight="1">
       <c r="A32" s="2">
         <v>5153038393</v>
       </c>
@@ -11156,43 +11212,41 @@
         <v>96</v>
       </c>
       <c r="BZ32" s="4"/>
-      <c r="CA32" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA32" s="4"/>
       <c r="CB32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD32" s="2">
         <v>0</v>
       </c>
-      <c r="CE32" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF32" s="4"/>
-      <c r="CG32" s="2" t="s">
+      <c r="CE32" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG32" s="4"/>
+      <c r="CH32" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH32" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ32" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ32" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL32" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL32" s="2" t="s">
+      <c r="CM32" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM32" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN32" s="2" t="s">
         <v>96</v>
       </c>
@@ -11206,10 +11260,13 @@
         <v>96</v>
       </c>
       <c r="CR32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS32" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:96" ht="15.75" customHeight="1">
+    <row r="33" spans="1:97" ht="15.75" customHeight="1">
       <c r="A33" s="2">
         <v>5153035824</v>
       </c>
@@ -11436,43 +11493,41 @@
         <v>96</v>
       </c>
       <c r="BZ33" s="4"/>
-      <c r="CA33" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA33" s="4"/>
       <c r="CB33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD33" s="2">
         <v>0</v>
       </c>
-      <c r="CE33" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF33" s="4"/>
-      <c r="CG33" s="2" t="s">
+      <c r="CE33" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG33" s="4"/>
+      <c r="CH33" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH33" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ33" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ33" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL33" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL33" s="2" t="s">
+      <c r="CM33" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM33" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN33" s="2" t="s">
         <v>96</v>
       </c>
@@ -11486,10 +11541,13 @@
         <v>96</v>
       </c>
       <c r="CR33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS33" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:96" ht="15.75" customHeight="1">
+    <row r="34" spans="1:97" ht="15.75" customHeight="1">
       <c r="A34" s="2">
         <v>5153022161</v>
       </c>
@@ -11716,43 +11774,41 @@
         <v>96</v>
       </c>
       <c r="BZ34" s="4"/>
-      <c r="CA34" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA34" s="4"/>
       <c r="CB34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD34" s="2">
         <v>0</v>
       </c>
-      <c r="CE34" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF34" s="4"/>
-      <c r="CG34" s="2" t="s">
+      <c r="CE34" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG34" s="4"/>
+      <c r="CH34" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH34" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ34" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ34" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL34" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL34" s="2" t="s">
+      <c r="CM34" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM34" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN34" s="2" t="s">
         <v>96</v>
       </c>
@@ -11766,10 +11822,13 @@
         <v>96</v>
       </c>
       <c r="CR34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS34" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:96" ht="15.75" customHeight="1">
+    <row r="35" spans="1:97" ht="15.75" customHeight="1">
       <c r="A35" s="2">
         <v>5153017653</v>
       </c>
@@ -11998,43 +12057,41 @@
         <v>96</v>
       </c>
       <c r="BZ35" s="4"/>
-      <c r="CA35" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA35" s="4"/>
       <c r="CB35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD35" s="2">
         <v>0</v>
       </c>
-      <c r="CE35" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF35" s="4"/>
-      <c r="CG35" s="2" t="s">
+      <c r="CE35" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG35" s="4"/>
+      <c r="CH35" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH35" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ35" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ35" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL35" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL35" s="2" t="s">
+      <c r="CM35" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="CM35" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN35" s="2" t="s">
         <v>96</v>
       </c>
@@ -12048,10 +12105,13 @@
         <v>96</v>
       </c>
       <c r="CR35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS35" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:96" ht="15.75" customHeight="1">
+    <row r="36" spans="1:97" ht="15.75" customHeight="1">
       <c r="A36" s="2">
         <v>5152477457</v>
       </c>
@@ -12278,9 +12338,7 @@
         <v>96</v>
       </c>
       <c r="BZ36" s="4"/>
-      <c r="CA36" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA36" s="4"/>
       <c r="CB36" s="2">
         <v>0</v>
       </c>
@@ -12290,31 +12348,31 @@
       <c r="CD36" s="2">
         <v>0</v>
       </c>
-      <c r="CE36" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF36" s="4"/>
-      <c r="CG36" s="2" t="s">
+      <c r="CE36" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG36" s="4"/>
+      <c r="CH36" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="CH36" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ36" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ36" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL36" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL36" s="2" t="s">
+      <c r="CM36" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM36" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN36" s="2" t="s">
         <v>96</v>
       </c>
@@ -12328,10 +12386,13 @@
         <v>96</v>
       </c>
       <c r="CR36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS36" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:96" ht="15.75" customHeight="1">
+    <row r="37" spans="1:97" ht="15.75" customHeight="1">
       <c r="A37" s="2">
         <v>5150131064</v>
       </c>
@@ -12558,60 +12619,61 @@
         <v>96</v>
       </c>
       <c r="BZ37" s="4"/>
-      <c r="CA37" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA37" s="4"/>
       <c r="CB37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD37" s="2">
         <v>0</v>
       </c>
-      <c r="CE37" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF37" s="4"/>
-      <c r="CG37" s="2" t="s">
+      <c r="CE37" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG37" s="4"/>
+      <c r="CH37" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH37" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ37" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ37" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL37" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL37" s="2" t="s">
+      <c r="CM37" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="CM37" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN37" s="2">
-        <v>0</v>
+      <c r="CN37" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO37" s="2">
         <v>0</v>
       </c>
       <c r="CP37" s="2">
-        <v>1</v>
-      </c>
-      <c r="CQ37" s="2" t="s">
-        <v>96</v>
+        <v>0</v>
+      </c>
+      <c r="CQ37" s="2">
+        <v>1</v>
       </c>
       <c r="CR37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS37" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:96" ht="15.75" customHeight="1">
+    <row r="38" spans="1:97" ht="15.75" customHeight="1">
       <c r="A38" s="2">
         <v>5150116587</v>
       </c>
@@ -12840,9 +12902,7 @@
         <v>96</v>
       </c>
       <c r="BZ38" s="4"/>
-      <c r="CA38" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA38" s="4"/>
       <c r="CB38" s="2">
         <v>0</v>
       </c>
@@ -12852,48 +12912,51 @@
       <c r="CD38" s="2">
         <v>0</v>
       </c>
-      <c r="CE38" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF38" s="4"/>
-      <c r="CG38" s="2" t="s">
+      <c r="CE38" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG38" s="4"/>
+      <c r="CH38" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH38" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ38" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ38" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL38" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL38" s="2" t="s">
+      <c r="CM38" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM38" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN38" s="2">
-        <v>1</v>
+      <c r="CN38" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP38" s="2">
         <v>0</v>
       </c>
-      <c r="CQ38" s="2" t="s">
-        <v>96</v>
+      <c r="CQ38" s="2">
+        <v>0</v>
       </c>
       <c r="CR38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS38" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:96" ht="15.75" customHeight="1">
+    <row r="39" spans="1:97" ht="15.75" customHeight="1">
       <c r="A39" s="2">
         <v>5150107051</v>
       </c>
@@ -13120,43 +13183,41 @@
         <v>96</v>
       </c>
       <c r="BZ39" s="4"/>
-      <c r="CA39" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA39" s="4"/>
       <c r="CB39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD39" s="2">
         <v>0</v>
       </c>
-      <c r="CE39" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF39" s="4"/>
-      <c r="CG39" s="2" t="s">
+      <c r="CE39" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG39" s="4"/>
+      <c r="CH39" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH39" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ39" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ39" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL39" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL39" s="2" t="s">
+      <c r="CM39" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM39" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN39" s="2" t="s">
         <v>96</v>
       </c>
@@ -13170,10 +13231,13 @@
         <v>96</v>
       </c>
       <c r="CR39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS39" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:96" ht="15.75" customHeight="1">
+    <row r="40" spans="1:97" ht="15.75" customHeight="1">
       <c r="A40" s="2">
         <v>5150089305</v>
       </c>
@@ -13400,9 +13464,7 @@
         <v>96</v>
       </c>
       <c r="BZ40" s="4"/>
-      <c r="CA40" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA40" s="4"/>
       <c r="CB40" s="2">
         <v>0</v>
       </c>
@@ -13412,31 +13474,31 @@
       <c r="CD40" s="2">
         <v>0</v>
       </c>
-      <c r="CE40" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF40" s="4"/>
-      <c r="CG40" s="2" t="s">
+      <c r="CE40" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG40" s="4"/>
+      <c r="CH40" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH40" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ40" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ40" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL40" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL40" s="2" t="s">
+      <c r="CM40" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM40" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN40" s="2" t="s">
         <v>96</v>
       </c>
@@ -13450,10 +13512,13 @@
         <v>96</v>
       </c>
       <c r="CR40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS40" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:96" ht="15.75" customHeight="1">
+    <row r="41" spans="1:97" ht="15.75" customHeight="1">
       <c r="A41" s="2">
         <v>5150078034</v>
       </c>
@@ -13680,9 +13745,7 @@
         <v>96</v>
       </c>
       <c r="BZ41" s="4"/>
-      <c r="CA41" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA41" s="4"/>
       <c r="CB41" s="2">
         <v>0</v>
       </c>
@@ -13692,50 +13755,53 @@
       <c r="CD41" s="2">
         <v>0</v>
       </c>
-      <c r="CE41" s="2" t="s">
+      <c r="CE41" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF41" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="CF41" s="4" t="s">
+      <c r="CG41" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="CG41" s="2" t="s">
+      <c r="CH41" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH41" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ41" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ41" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL41" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL41" s="2" t="s">
+      <c r="CM41" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM41" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN41" s="2">
-        <v>1</v>
+      <c r="CN41" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP41" s="2">
         <v>0</v>
       </c>
-      <c r="CQ41" s="2" t="s">
-        <v>96</v>
+      <c r="CQ41" s="2">
+        <v>0</v>
       </c>
       <c r="CR41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS41" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:96" ht="15.75" customHeight="1">
+    <row r="42" spans="1:97" ht="15.75" customHeight="1">
       <c r="A42" s="2">
         <v>5149953125</v>
       </c>
@@ -13964,13 +14030,13 @@
         <v>289</v>
       </c>
       <c r="BZ42" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="CA42" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="CA42" s="2">
-        <v>1</v>
-      </c>
       <c r="CB42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC42" s="2">
         <v>0</v>
@@ -13978,31 +14044,31 @@
       <c r="CD42" s="2">
         <v>0</v>
       </c>
-      <c r="CE42" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF42" s="4"/>
-      <c r="CG42" s="2" t="s">
+      <c r="CE42" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG42" s="4"/>
+      <c r="CH42" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH42" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ42" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ42" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL42" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL42" s="2" t="s">
+      <c r="CM42" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM42" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN42" s="2" t="s">
         <v>96</v>
       </c>
@@ -14016,10 +14082,13 @@
         <v>96</v>
       </c>
       <c r="CR42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS42" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:96" ht="15.75" customHeight="1">
+    <row r="43" spans="1:97" ht="15.75" customHeight="1">
       <c r="A43" s="2">
         <v>5149923313</v>
       </c>
@@ -14246,60 +14315,61 @@
         <v>96</v>
       </c>
       <c r="BZ43" s="4"/>
-      <c r="CA43" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA43" s="4"/>
       <c r="CB43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD43" s="2">
         <v>0</v>
       </c>
-      <c r="CE43" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF43" s="4"/>
-      <c r="CG43" s="2" t="s">
+      <c r="CE43" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF43" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG43" s="4"/>
+      <c r="CH43" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH43" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI43" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ43" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ43" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK43" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL43" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL43" s="2" t="s">
+      <c r="CM43" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM43" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN43" s="2">
-        <v>0</v>
+      <c r="CN43" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP43" s="2">
-        <v>0</v>
-      </c>
-      <c r="CQ43" s="2" t="s">
-        <v>96</v>
+        <v>1</v>
+      </c>
+      <c r="CQ43" s="2">
+        <v>0</v>
       </c>
       <c r="CR43" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS43" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:96" ht="15.75" customHeight="1">
+    <row r="44" spans="1:97" ht="15.75" customHeight="1">
       <c r="A44" s="2">
         <v>5149908799</v>
       </c>
@@ -14526,9 +14596,7 @@
         <v>96</v>
       </c>
       <c r="BZ44" s="4"/>
-      <c r="CA44" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA44" s="4"/>
       <c r="CB44" s="2">
         <v>0</v>
       </c>
@@ -14538,48 +14606,51 @@
       <c r="CD44" s="2">
         <v>0</v>
       </c>
-      <c r="CE44" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF44" s="4"/>
-      <c r="CG44" s="2" t="s">
+      <c r="CE44" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG44" s="4"/>
+      <c r="CH44" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH44" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ44" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ44" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL44" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL44" s="2" t="s">
+      <c r="CM44" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM44" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN44" s="2">
-        <v>1</v>
+      <c r="CN44" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP44" s="2">
         <v>0</v>
       </c>
-      <c r="CQ44" s="2" t="s">
-        <v>96</v>
+      <c r="CQ44" s="2">
+        <v>0</v>
       </c>
       <c r="CR44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS44" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:96" ht="15.75" customHeight="1">
+    <row r="45" spans="1:97" ht="15.75" customHeight="1">
       <c r="A45" s="2">
         <v>5149866093</v>
       </c>
@@ -14808,9 +14879,7 @@
         <v>96</v>
       </c>
       <c r="BZ45" s="4"/>
-      <c r="CA45" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA45" s="4"/>
       <c r="CB45" s="2">
         <v>0</v>
       </c>
@@ -14820,33 +14889,33 @@
       <c r="CD45" s="2">
         <v>0</v>
       </c>
-      <c r="CE45" s="2" t="s">
+      <c r="CE45" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF45" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="CF45" s="4" t="s">
+      <c r="CG45" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="CG45" s="2" t="s">
+      <c r="CH45" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH45" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ45" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ45" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL45" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="CL45" s="2" t="s">
+      <c r="CM45" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM45" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN45" s="2" t="s">
         <v>96</v>
       </c>
@@ -14860,10 +14929,13 @@
         <v>96</v>
       </c>
       <c r="CR45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS45" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:96" ht="15.75" customHeight="1">
+    <row r="46" spans="1:97" ht="15.75" customHeight="1">
       <c r="A46" s="2">
         <v>5149841512</v>
       </c>
@@ -15092,9 +15164,7 @@
         <v>96</v>
       </c>
       <c r="BZ46" s="4"/>
-      <c r="CA46" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA46" s="4"/>
       <c r="CB46" s="2">
         <v>0</v>
       </c>
@@ -15104,31 +15174,31 @@
       <c r="CD46" s="2">
         <v>0</v>
       </c>
-      <c r="CE46" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF46" s="4"/>
-      <c r="CG46" s="2" t="s">
+      <c r="CE46" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG46" s="4"/>
+      <c r="CH46" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH46" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ46" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ46" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL46" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL46" s="2" t="s">
+      <c r="CM46" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM46" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN46" s="2" t="s">
         <v>96</v>
       </c>
@@ -15142,10 +15212,13 @@
         <v>96</v>
       </c>
       <c r="CR46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS46" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:96" ht="15.75" customHeight="1">
+    <row r="47" spans="1:97" ht="15.75" customHeight="1">
       <c r="A47" s="2">
         <v>5149821718</v>
       </c>
@@ -15372,43 +15445,41 @@
         <v>96</v>
       </c>
       <c r="BZ47" s="4"/>
-      <c r="CA47" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA47" s="4"/>
       <c r="CB47" s="2">
         <v>0</v>
       </c>
       <c r="CC47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD47" s="2">
-        <v>0</v>
-      </c>
-      <c r="CE47" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF47" s="4"/>
-      <c r="CG47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CE47" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG47" s="4"/>
+      <c r="CH47" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH47" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ47" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ47" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL47" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL47" s="2" t="s">
+      <c r="CM47" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM47" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN47" s="2" t="s">
         <v>96</v>
       </c>
@@ -15422,10 +15493,13 @@
         <v>96</v>
       </c>
       <c r="CR47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS47" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:96" ht="15.75" customHeight="1">
+    <row r="48" spans="1:97" ht="15.75" customHeight="1">
       <c r="A48" s="2">
         <v>5148054111</v>
       </c>
@@ -15652,9 +15726,7 @@
         <v>96</v>
       </c>
       <c r="BZ48" s="4"/>
-      <c r="CA48" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA48" s="4"/>
       <c r="CB48" s="2">
         <v>0</v>
       </c>
@@ -15664,31 +15736,31 @@
       <c r="CD48" s="2">
         <v>0</v>
       </c>
-      <c r="CE48" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF48" s="4"/>
-      <c r="CG48" s="2" t="s">
+      <c r="CE48" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG48" s="4"/>
+      <c r="CH48" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH48" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ48" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ48" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL48" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL48" s="2" t="s">
+      <c r="CM48" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="CM48" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN48" s="2" t="s">
         <v>96</v>
       </c>
@@ -15702,10 +15774,13 @@
         <v>96</v>
       </c>
       <c r="CR48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS48" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:96" ht="15.75" customHeight="1">
+    <row r="49" spans="1:97" ht="15.75" customHeight="1">
       <c r="A49" s="2">
         <v>5147104825</v>
       </c>
@@ -15932,60 +16007,61 @@
         <v>96</v>
       </c>
       <c r="BZ49" s="4"/>
-      <c r="CA49" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA49" s="4"/>
       <c r="CB49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD49" s="2">
         <v>0</v>
       </c>
-      <c r="CE49" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF49" s="4"/>
-      <c r="CG49" s="2" t="s">
+      <c r="CE49" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG49" s="4"/>
+      <c r="CH49" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH49" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ49" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ49" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL49" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL49" s="2" t="s">
+      <c r="CM49" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM49" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN49" s="2">
-        <v>1</v>
+      <c r="CN49" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP49" s="2">
         <v>0</v>
       </c>
-      <c r="CQ49" s="2" t="s">
-        <v>96</v>
+      <c r="CQ49" s="2">
+        <v>0</v>
       </c>
       <c r="CR49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS49" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:96" ht="15.75" customHeight="1">
+    <row r="50" spans="1:97" ht="15.75" customHeight="1">
       <c r="A50" s="2">
         <v>5147011304</v>
       </c>
@@ -16212,9 +16288,7 @@
         <v>96</v>
       </c>
       <c r="BZ50" s="4"/>
-      <c r="CA50" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA50" s="4"/>
       <c r="CB50" s="2">
         <v>0</v>
       </c>
@@ -16224,31 +16298,31 @@
       <c r="CD50" s="2">
         <v>0</v>
       </c>
-      <c r="CE50" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF50" s="4"/>
-      <c r="CG50" s="2" t="s">
+      <c r="CE50" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG50" s="4"/>
+      <c r="CH50" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH50" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ50" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ50" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL50" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL50" s="2" t="s">
+      <c r="CM50" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="CM50" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN50" s="2" t="s">
         <v>96</v>
       </c>
@@ -16262,10 +16336,13 @@
         <v>96</v>
       </c>
       <c r="CR50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS50" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:96" ht="15.75" customHeight="1">
+    <row r="51" spans="1:97" ht="15.75" customHeight="1">
       <c r="A51" s="2">
         <v>5146774483</v>
       </c>
@@ -16496,43 +16573,41 @@
         <v>96</v>
       </c>
       <c r="BZ51" s="4"/>
-      <c r="CA51" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA51" s="4"/>
       <c r="CB51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD51" s="2">
         <v>0</v>
       </c>
-      <c r="CE51" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF51" s="4"/>
-      <c r="CG51" s="2" t="s">
+      <c r="CE51" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG51" s="4"/>
+      <c r="CH51" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH51" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ51" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ51" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL51" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL51" s="2" t="s">
+      <c r="CM51" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="CM51" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN51" s="2" t="s">
         <v>96</v>
       </c>
@@ -16546,10 +16621,13 @@
         <v>96</v>
       </c>
       <c r="CR51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS51" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:96" ht="15.75" customHeight="1">
+    <row r="52" spans="1:97" ht="15.75" customHeight="1">
       <c r="A52" s="2">
         <v>5145749829</v>
       </c>
@@ -16776,9 +16854,7 @@
         <v>96</v>
       </c>
       <c r="BZ52" s="4"/>
-      <c r="CA52" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA52" s="4"/>
       <c r="CB52" s="2">
         <v>0</v>
       </c>
@@ -16788,13 +16864,13 @@
       <c r="CD52" s="2">
         <v>0</v>
       </c>
-      <c r="CE52" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF52" s="4"/>
-      <c r="CG52" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="CE52" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG52" s="4"/>
       <c r="CH52" s="2" t="s">
         <v>96</v>
       </c>
@@ -16826,10 +16902,13 @@
         <v>96</v>
       </c>
       <c r="CR52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS52" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:96" ht="15.75" customHeight="1">
+    <row r="53" spans="1:97" ht="15.75" customHeight="1">
       <c r="A53" s="2">
         <v>5145095269</v>
       </c>
@@ -17056,60 +17135,61 @@
         <v>96</v>
       </c>
       <c r="BZ53" s="4"/>
-      <c r="CA53" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA53" s="4"/>
       <c r="CB53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD53" s="2">
         <v>0</v>
       </c>
-      <c r="CE53" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF53" s="4"/>
-      <c r="CG53" s="2" t="s">
+      <c r="CE53" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG53" s="4"/>
+      <c r="CH53" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH53" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ53" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ53" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL53" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL53" s="2" t="s">
+      <c r="CM53" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM53" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN53" s="2">
-        <v>1</v>
+      <c r="CN53" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP53" s="2">
         <v>0</v>
       </c>
-      <c r="CQ53" s="2" t="s">
-        <v>96</v>
+      <c r="CQ53" s="2">
+        <v>0</v>
       </c>
       <c r="CR53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS53" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:96" ht="15.75" customHeight="1">
+    <row r="54" spans="1:97" ht="15.75" customHeight="1">
       <c r="A54" s="2">
         <v>5144996550</v>
       </c>
@@ -17336,60 +17416,61 @@
         <v>96</v>
       </c>
       <c r="BZ54" s="4"/>
-      <c r="CA54" s="2">
-        <v>1</v>
-      </c>
+      <c r="CA54" s="4"/>
       <c r="CB54" s="2">
         <v>1</v>
       </c>
       <c r="CC54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD54" s="2">
         <v>0</v>
       </c>
-      <c r="CE54" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF54" s="4"/>
-      <c r="CG54" s="2" t="s">
+      <c r="CE54" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF54" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG54" s="4"/>
+      <c r="CH54" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH54" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI54" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ54" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ54" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK54" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL54" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL54" s="2" t="s">
+      <c r="CM54" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM54" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN54" s="2">
-        <v>1</v>
+      <c r="CN54" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP54" s="2">
         <v>0</v>
       </c>
-      <c r="CQ54" s="2" t="s">
-        <v>96</v>
+      <c r="CQ54" s="2">
+        <v>0</v>
       </c>
       <c r="CR54" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS54" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:96" ht="15.75" customHeight="1">
+    <row r="55" spans="1:97" ht="15.75" customHeight="1">
       <c r="A55" s="2">
         <v>5144310370</v>
       </c>
@@ -17622,43 +17703,41 @@
         <v>96</v>
       </c>
       <c r="BZ55" s="4"/>
-      <c r="CA55" s="2">
-        <v>1</v>
-      </c>
+      <c r="CA55" s="4"/>
       <c r="CB55" s="2">
         <v>1</v>
       </c>
       <c r="CC55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD55" s="2">
         <v>0</v>
       </c>
-      <c r="CE55" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF55" s="4"/>
-      <c r="CG55" s="2" t="s">
+      <c r="CE55" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF55" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG55" s="4"/>
+      <c r="CH55" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH55" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI55" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ55" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ55" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK55" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL55" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL55" s="2" t="s">
+      <c r="CM55" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM55" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN55" s="2" t="s">
         <v>96</v>
       </c>
@@ -17672,10 +17751,13 @@
         <v>96</v>
       </c>
       <c r="CR55" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS55" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:96" ht="15.75" customHeight="1">
+    <row r="56" spans="1:97" ht="15.75" customHeight="1">
       <c r="A56" s="2">
         <v>5143393868</v>
       </c>
@@ -17904,43 +17986,41 @@
         <v>96</v>
       </c>
       <c r="BZ56" s="4"/>
-      <c r="CA56" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA56" s="4"/>
       <c r="CB56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD56" s="2">
         <v>0</v>
       </c>
-      <c r="CE56" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF56" s="4"/>
-      <c r="CG56" s="2" t="s">
+      <c r="CE56" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF56" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG56" s="4"/>
+      <c r="CH56" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH56" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI56" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ56" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ56" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK56" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL56" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL56" s="2" t="s">
+      <c r="CM56" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM56" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN56" s="2" t="s">
         <v>96</v>
       </c>
@@ -17954,10 +18034,13 @@
         <v>96</v>
       </c>
       <c r="CR56" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS56" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:96" ht="15.75" customHeight="1">
+    <row r="57" spans="1:97" ht="15.75" customHeight="1">
       <c r="A57" s="2">
         <v>5142269349</v>
       </c>
@@ -18184,62 +18267,63 @@
         <v>96</v>
       </c>
       <c r="BZ57" s="4"/>
-      <c r="CA57" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA57" s="4"/>
       <c r="CB57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD57" s="2">
         <v>0</v>
       </c>
-      <c r="CE57" s="2" t="s">
+      <c r="CE57" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF57" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="CF57" s="4" t="s">
+      <c r="CG57" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="CG57" s="2" t="s">
+      <c r="CH57" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="CH57" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI57" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ57" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ57" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK57" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL57" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL57" s="2" t="s">
+      <c r="CM57" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM57" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN57" s="2">
-        <v>1</v>
+      <c r="CN57" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP57" s="2">
         <v>0</v>
       </c>
-      <c r="CQ57" s="2" t="s">
-        <v>96</v>
+      <c r="CQ57" s="2">
+        <v>0</v>
       </c>
       <c r="CR57" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS57" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:96" ht="15.75" customHeight="1">
+    <row r="58" spans="1:97" ht="15.75" customHeight="1">
       <c r="A58" s="2">
         <v>5141394436</v>
       </c>
@@ -18466,9 +18550,7 @@
         <v>96</v>
       </c>
       <c r="BZ58" s="4"/>
-      <c r="CA58" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA58" s="4"/>
       <c r="CB58" s="2">
         <v>0</v>
       </c>
@@ -18478,13 +18560,13 @@
       <c r="CD58" s="2">
         <v>0</v>
       </c>
-      <c r="CE58" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF58" s="4"/>
-      <c r="CG58" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="CE58" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF58" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG58" s="4"/>
       <c r="CH58" s="2" t="s">
         <v>96</v>
       </c>
@@ -18516,10 +18598,13 @@
         <v>96</v>
       </c>
       <c r="CR58" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS58" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:96" ht="15.75" customHeight="1">
+    <row r="59" spans="1:97" ht="15.75" customHeight="1">
       <c r="A59" s="2">
         <v>5139297961</v>
       </c>
@@ -18748,60 +18833,61 @@
         <v>96</v>
       </c>
       <c r="BZ59" s="4"/>
-      <c r="CA59" s="2">
-        <v>1</v>
-      </c>
+      <c r="CA59" s="4"/>
       <c r="CB59" s="2">
         <v>1</v>
       </c>
       <c r="CC59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD59" s="2">
         <v>0</v>
       </c>
-      <c r="CE59" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF59" s="4"/>
-      <c r="CG59" s="2" t="s">
+      <c r="CE59" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF59" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG59" s="4"/>
+      <c r="CH59" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH59" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI59" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ59" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ59" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK59" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL59" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL59" s="2" t="s">
+      <c r="CM59" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="CM59" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN59" s="2">
-        <v>1</v>
+      <c r="CN59" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP59" s="2">
         <v>0</v>
       </c>
-      <c r="CQ59" s="2" t="s">
-        <v>96</v>
+      <c r="CQ59" s="2">
+        <v>0</v>
       </c>
       <c r="CR59" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS59" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:96" ht="15.75" customHeight="1">
+    <row r="60" spans="1:97" ht="15.75" customHeight="1">
       <c r="A60" s="2">
         <v>5139097041</v>
       </c>
@@ -19028,9 +19114,7 @@
         <v>96</v>
       </c>
       <c r="BZ60" s="4"/>
-      <c r="CA60" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA60" s="4"/>
       <c r="CB60" s="2">
         <v>0</v>
       </c>
@@ -19040,33 +19124,33 @@
       <c r="CD60" s="2">
         <v>0</v>
       </c>
-      <c r="CE60" s="2" t="s">
+      <c r="CE60" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF60" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="CF60" s="4" t="s">
+      <c r="CG60" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="CG60" s="2" t="s">
+      <c r="CH60" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH60" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI60" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ60" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ60" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK60" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL60" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL60" s="2" t="s">
+      <c r="CM60" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM60" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN60" s="2" t="s">
         <v>96</v>
       </c>
@@ -19080,10 +19164,13 @@
         <v>96</v>
       </c>
       <c r="CR60" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS60" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:96" ht="15.75" customHeight="1">
+    <row r="61" spans="1:97" ht="15.75" customHeight="1">
       <c r="A61" s="2">
         <v>5138937037</v>
       </c>
@@ -19310,9 +19397,7 @@
         <v>96</v>
       </c>
       <c r="BZ61" s="4"/>
-      <c r="CA61" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA61" s="4"/>
       <c r="CB61" s="2">
         <v>0</v>
       </c>
@@ -19322,48 +19407,51 @@
       <c r="CD61" s="2">
         <v>0</v>
       </c>
-      <c r="CE61" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF61" s="4"/>
-      <c r="CG61" s="2" t="s">
+      <c r="CE61" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF61" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG61" s="4"/>
+      <c r="CH61" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH61" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI61" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ61" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="CJ61" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK61" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL61" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="CL61" s="2" t="s">
+      <c r="CM61" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="CM61" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN61" s="2">
-        <v>1</v>
+      <c r="CN61" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP61" s="2">
         <v>0</v>
       </c>
-      <c r="CQ61" s="2" t="s">
-        <v>96</v>
+      <c r="CQ61" s="2">
+        <v>0</v>
       </c>
       <c r="CR61" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS61" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:96" ht="15.75" customHeight="1">
+    <row r="62" spans="1:97" ht="15.75" customHeight="1">
       <c r="A62" s="2">
         <v>5138101975</v>
       </c>
@@ -19590,11 +19678,11 @@
         <v>370</v>
       </c>
       <c r="BZ62" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="CA62" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="CA62" s="2">
-        <v>0</v>
-      </c>
       <c r="CB62" s="2">
         <v>0</v>
       </c>
@@ -19604,48 +19692,51 @@
       <c r="CD62" s="2">
         <v>0</v>
       </c>
-      <c r="CE62" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF62" s="4"/>
-      <c r="CG62" s="2" t="s">
+      <c r="CE62" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF62" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG62" s="4"/>
+      <c r="CH62" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH62" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI62" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ62" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ62" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK62" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL62" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL62" s="2" t="s">
+      <c r="CM62" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM62" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN62" s="2">
-        <v>1</v>
+      <c r="CN62" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP62" s="2">
         <v>0</v>
       </c>
-      <c r="CQ62" s="2" t="s">
-        <v>96</v>
+      <c r="CQ62" s="2">
+        <v>0</v>
       </c>
       <c r="CR62" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS62" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:96" ht="15.75" customHeight="1">
+    <row r="63" spans="1:97" ht="15.75" customHeight="1">
       <c r="A63" s="2">
         <v>5137115489</v>
       </c>
@@ -19872,11 +19963,9 @@
         <v>96</v>
       </c>
       <c r="BZ63" s="4"/>
-      <c r="CA63" s="2">
-        <v>1</v>
-      </c>
+      <c r="CA63" s="4"/>
       <c r="CB63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC63" s="2">
         <v>0</v>
@@ -19884,48 +19973,51 @@
       <c r="CD63" s="2">
         <v>0</v>
       </c>
-      <c r="CE63" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF63" s="4"/>
-      <c r="CG63" s="2" t="s">
+      <c r="CE63" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF63" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG63" s="4"/>
+      <c r="CH63" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH63" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI63" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ63" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ63" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK63" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL63" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="CL63" s="2" t="s">
+      <c r="CM63" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM63" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN63" s="2">
-        <v>1</v>
+      <c r="CN63" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP63" s="2">
         <v>0</v>
       </c>
-      <c r="CQ63" s="2" t="s">
-        <v>96</v>
+      <c r="CQ63" s="2">
+        <v>0</v>
       </c>
       <c r="CR63" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS63" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:96" ht="15.75" customHeight="1">
+    <row r="64" spans="1:97" ht="15.75" customHeight="1">
       <c r="A64" s="2">
         <v>5135909194</v>
       </c>
@@ -20152,9 +20244,7 @@
         <v>96</v>
       </c>
       <c r="BZ64" s="4"/>
-      <c r="CA64" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA64" s="4"/>
       <c r="CB64" s="2">
         <v>0</v>
       </c>
@@ -20164,33 +20254,33 @@
       <c r="CD64" s="2">
         <v>0</v>
       </c>
-      <c r="CE64" s="2" t="s">
+      <c r="CE64" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF64" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="CF64" s="4" t="s">
+      <c r="CG64" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="CG64" s="2" t="s">
+      <c r="CH64" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH64" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI64" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ64" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ64" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK64" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL64" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL64" s="2" t="s">
+      <c r="CM64" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM64" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN64" s="2" t="s">
         <v>96</v>
       </c>
@@ -20204,10 +20294,13 @@
         <v>96</v>
       </c>
       <c r="CR64" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS64" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:96" ht="15.75" customHeight="1">
+    <row r="65" spans="1:97" ht="15.75" customHeight="1">
       <c r="A65" s="2">
         <v>5135712726</v>
       </c>
@@ -20438,9 +20531,7 @@
         <v>96</v>
       </c>
       <c r="BZ65" s="4"/>
-      <c r="CA65" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA65" s="4"/>
       <c r="CB65" s="2">
         <v>0</v>
       </c>
@@ -20450,48 +20541,51 @@
       <c r="CD65" s="2">
         <v>0</v>
       </c>
-      <c r="CE65" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF65" s="4"/>
-      <c r="CG65" s="2" t="s">
+      <c r="CE65" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF65" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG65" s="4"/>
+      <c r="CH65" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH65" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI65" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ65" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ65" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK65" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL65" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL65" s="2" t="s">
+      <c r="CM65" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="CM65" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN65" s="2">
-        <v>1</v>
+      <c r="CN65" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP65" s="2">
         <v>0</v>
       </c>
-      <c r="CQ65" s="2" t="s">
-        <v>96</v>
+      <c r="CQ65" s="2">
+        <v>0</v>
       </c>
       <c r="CR65" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS65" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:96" ht="15.75" customHeight="1">
+    <row r="66" spans="1:97" ht="15.75" customHeight="1">
       <c r="A66" s="2">
         <v>5135625769</v>
       </c>
@@ -20718,9 +20812,7 @@
         <v>96</v>
       </c>
       <c r="BZ66" s="4"/>
-      <c r="CA66" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA66" s="4"/>
       <c r="CB66" s="2">
         <v>0</v>
       </c>
@@ -20730,13 +20822,13 @@
       <c r="CD66" s="2">
         <v>0</v>
       </c>
-      <c r="CE66" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF66" s="4"/>
-      <c r="CG66" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="CE66" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF66" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG66" s="4"/>
       <c r="CH66" s="2" t="s">
         <v>96</v>
       </c>
@@ -20768,10 +20860,13 @@
         <v>96</v>
       </c>
       <c r="CR66" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS66" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:96" ht="15.75" customHeight="1">
+    <row r="67" spans="1:97" ht="15.75" customHeight="1">
       <c r="A67" s="2">
         <v>5134645068</v>
       </c>
@@ -21000,11 +21095,11 @@
         <v>389</v>
       </c>
       <c r="BZ67" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="CA67" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="CA67" s="2">
-        <v>0</v>
-      </c>
       <c r="CB67" s="2">
         <v>0</v>
       </c>
@@ -21014,33 +21109,33 @@
       <c r="CD67" s="2">
         <v>0</v>
       </c>
-      <c r="CE67" s="2" t="s">
+      <c r="CE67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF67" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="CF67" s="4" t="s">
+      <c r="CG67" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="CG67" s="2" t="s">
+      <c r="CH67" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH67" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI67" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ67" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ67" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK67" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL67" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL67" s="2" t="s">
+      <c r="CM67" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="CM67" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN67" s="2" t="s">
         <v>96</v>
       </c>
@@ -21054,10 +21149,13 @@
         <v>96</v>
       </c>
       <c r="CR67" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS67" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:96" ht="15.75" customHeight="1">
+    <row r="68" spans="1:97" ht="15.75" customHeight="1">
       <c r="A68" s="2">
         <v>5134474268</v>
       </c>
@@ -21284,43 +21382,41 @@
         <v>96</v>
       </c>
       <c r="BZ68" s="4"/>
-      <c r="CA68" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA68" s="4"/>
       <c r="CB68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD68" s="2">
         <v>0</v>
       </c>
-      <c r="CE68" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF68" s="4"/>
-      <c r="CG68" s="2" t="s">
+      <c r="CE68" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF68" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG68" s="4"/>
+      <c r="CH68" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH68" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI68" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ68" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ68" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK68" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL68" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL68" s="2" t="s">
+      <c r="CM68" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="CM68" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN68" s="2" t="s">
         <v>96</v>
       </c>
@@ -21334,10 +21430,13 @@
         <v>96</v>
       </c>
       <c r="CR68" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS68" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:96" ht="15.75" customHeight="1">
+    <row r="69" spans="1:97" ht="15.75" customHeight="1">
       <c r="A69" s="2">
         <v>5134391149</v>
       </c>
@@ -21568,11 +21667,9 @@
         <v>96</v>
       </c>
       <c r="BZ69" s="4"/>
-      <c r="CA69" s="2">
-        <v>1</v>
-      </c>
+      <c r="CA69" s="4"/>
       <c r="CB69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC69" s="2">
         <v>0</v>
@@ -21580,31 +21677,31 @@
       <c r="CD69" s="2">
         <v>0</v>
       </c>
-      <c r="CE69" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF69" s="4"/>
-      <c r="CG69" s="2" t="s">
+      <c r="CE69" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF69" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG69" s="4"/>
+      <c r="CH69" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="CH69" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI69" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ69" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ69" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK69" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL69" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL69" s="2" t="s">
+      <c r="CM69" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="CM69" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN69" s="2" t="s">
         <v>96</v>
       </c>
@@ -21618,10 +21715,13 @@
         <v>96</v>
       </c>
       <c r="CR69" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS69" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:96" ht="15.75" customHeight="1">
+    <row r="70" spans="1:97" ht="15.75" customHeight="1">
       <c r="A70" s="2">
         <v>5133855921</v>
       </c>
@@ -21850,9 +21950,7 @@
         <v>96</v>
       </c>
       <c r="BZ70" s="4"/>
-      <c r="CA70" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA70" s="4"/>
       <c r="CB70" s="2">
         <v>0</v>
       </c>
@@ -21862,48 +21960,51 @@
       <c r="CD70" s="2">
         <v>0</v>
       </c>
-      <c r="CE70" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF70" s="4"/>
-      <c r="CG70" s="2" t="s">
+      <c r="CE70" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF70" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG70" s="4"/>
+      <c r="CH70" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH70" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI70" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ70" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ70" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK70" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL70" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL70" s="2" t="s">
+      <c r="CM70" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="CM70" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN70" s="2">
-        <v>1</v>
+      <c r="CN70" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP70" s="2">
         <v>0</v>
       </c>
-      <c r="CQ70" s="2" t="s">
-        <v>96</v>
+      <c r="CQ70" s="2">
+        <v>0</v>
       </c>
       <c r="CR70" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS70" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="71" spans="1:96" ht="15.75" customHeight="1">
+    <row r="71" spans="1:97" ht="15.75" customHeight="1">
       <c r="A71" s="2">
         <v>5133854309</v>
       </c>
@@ -22130,9 +22231,7 @@
         <v>96</v>
       </c>
       <c r="BZ71" s="4"/>
-      <c r="CA71" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA71" s="4"/>
       <c r="CB71" s="2">
         <v>0</v>
       </c>
@@ -22142,31 +22241,31 @@
       <c r="CD71" s="2">
         <v>0</v>
       </c>
-      <c r="CE71" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF71" s="4"/>
-      <c r="CG71" s="2" t="s">
+      <c r="CE71" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG71" s="4"/>
+      <c r="CH71" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="CH71" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ71" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ71" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL71" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL71" s="2" t="s">
+      <c r="CM71" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM71" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN71" s="2" t="s">
         <v>96</v>
       </c>
@@ -22180,10 +22279,13 @@
         <v>96</v>
       </c>
       <c r="CR71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS71" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:96" ht="15.75" customHeight="1">
+    <row r="72" spans="1:97" ht="15.75" customHeight="1">
       <c r="A72" s="2">
         <v>5133771761</v>
       </c>
@@ -22412,60 +22514,61 @@
         <v>96</v>
       </c>
       <c r="BZ72" s="4"/>
-      <c r="CA72" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA72" s="4"/>
       <c r="CB72" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD72" s="2">
         <v>0</v>
       </c>
-      <c r="CE72" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF72" s="4"/>
-      <c r="CG72" s="2" t="s">
+      <c r="CE72" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF72" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG72" s="4"/>
+      <c r="CH72" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="CH72" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI72" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ72" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ72" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK72" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL72" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL72" s="2" t="s">
+      <c r="CM72" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM72" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN72" s="2">
-        <v>1</v>
+      <c r="CN72" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP72" s="2">
         <v>0</v>
       </c>
-      <c r="CQ72" s="2" t="s">
-        <v>96</v>
+      <c r="CQ72" s="2">
+        <v>0</v>
       </c>
       <c r="CR72" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS72" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:96" ht="15.75" customHeight="1">
+    <row r="73" spans="1:97" ht="15.75" customHeight="1">
       <c r="A73" s="2">
         <v>5133741973</v>
       </c>
@@ -22692,9 +22795,7 @@
         <v>96</v>
       </c>
       <c r="BZ73" s="4"/>
-      <c r="CA73" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA73" s="4"/>
       <c r="CB73" s="2">
         <v>0</v>
       </c>
@@ -22704,13 +22805,13 @@
       <c r="CD73" s="2">
         <v>0</v>
       </c>
-      <c r="CE73" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF73" s="4"/>
-      <c r="CG73" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="CE73" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF73" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG73" s="4"/>
       <c r="CH73" s="2" t="s">
         <v>96</v>
       </c>
@@ -22742,10 +22843,13 @@
         <v>96</v>
       </c>
       <c r="CR73" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS73" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:96" ht="15.75" customHeight="1">
+    <row r="74" spans="1:97" ht="15.75" customHeight="1">
       <c r="A74" s="2">
         <v>5133623645</v>
       </c>
@@ -22974,9 +23078,7 @@
         <v>96</v>
       </c>
       <c r="BZ74" s="4"/>
-      <c r="CA74" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA74" s="4"/>
       <c r="CB74" s="2">
         <v>0</v>
       </c>
@@ -22986,50 +23088,53 @@
       <c r="CD74" s="2">
         <v>0</v>
       </c>
-      <c r="CE74" s="2" t="s">
+      <c r="CE74" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF74" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="CF74" s="4" t="s">
+      <c r="CG74" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="CG74" s="2" t="s">
+      <c r="CH74" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH74" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI74" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ74" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ74" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK74" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL74" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL74" s="2" t="s">
+      <c r="CM74" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM74" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN74" s="2">
-        <v>0</v>
+      <c r="CN74" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO74" s="2">
         <v>0</v>
       </c>
       <c r="CP74" s="2">
-        <v>1</v>
-      </c>
-      <c r="CQ74" s="2" t="s">
-        <v>96</v>
+        <v>0</v>
+      </c>
+      <c r="CQ74" s="2">
+        <v>1</v>
       </c>
       <c r="CR74" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS74" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:96" ht="15.75" customHeight="1">
+    <row r="75" spans="1:97" ht="15.75" customHeight="1">
       <c r="A75" s="2">
         <v>5132648706</v>
       </c>
@@ -23256,9 +23361,7 @@
         <v>96</v>
       </c>
       <c r="BZ75" s="4"/>
-      <c r="CA75" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA75" s="4"/>
       <c r="CB75" s="2">
         <v>0</v>
       </c>
@@ -23268,48 +23371,51 @@
       <c r="CD75" s="2">
         <v>0</v>
       </c>
-      <c r="CE75" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF75" s="4"/>
-      <c r="CG75" s="2" t="s">
+      <c r="CE75" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF75" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG75" s="4"/>
+      <c r="CH75" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH75" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI75" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ75" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ75" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK75" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL75" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL75" s="2" t="s">
+      <c r="CM75" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM75" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN75" s="2">
-        <v>1</v>
+      <c r="CN75" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO75" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP75" s="2">
         <v>0</v>
       </c>
-      <c r="CQ75" s="2" t="s">
-        <v>96</v>
+      <c r="CQ75" s="2">
+        <v>0</v>
       </c>
       <c r="CR75" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS75" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="1:96" ht="15.75" customHeight="1">
+    <row r="76" spans="1:97" ht="15.75" customHeight="1">
       <c r="A76" s="2">
         <v>5131466483</v>
       </c>
@@ -23536,60 +23642,61 @@
         <v>96</v>
       </c>
       <c r="BZ76" s="4"/>
-      <c r="CA76" s="2">
-        <v>1</v>
-      </c>
+      <c r="CA76" s="4"/>
       <c r="CB76" s="2">
         <v>1</v>
       </c>
       <c r="CC76" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD76" s="2">
         <v>0</v>
       </c>
-      <c r="CE76" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF76" s="4"/>
-      <c r="CG76" s="2" t="s">
+      <c r="CE76" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG76" s="4"/>
+      <c r="CH76" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH76" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ76" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ76" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL76" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL76" s="2" t="s">
+      <c r="CM76" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM76" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN76" s="2">
-        <v>1</v>
+      <c r="CN76" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO76" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP76" s="2">
         <v>0</v>
       </c>
-      <c r="CQ76" s="2" t="s">
-        <v>96</v>
+      <c r="CQ76" s="2">
+        <v>0</v>
       </c>
       <c r="CR76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS76" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:96" ht="15.75" customHeight="1">
+    <row r="77" spans="1:97" ht="15.75" customHeight="1">
       <c r="A77" s="2">
         <v>5131094363</v>
       </c>
@@ -23816,9 +23923,7 @@
         <v>96</v>
       </c>
       <c r="BZ77" s="4"/>
-      <c r="CA77" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA77" s="4"/>
       <c r="CB77" s="2">
         <v>0</v>
       </c>
@@ -23828,33 +23933,33 @@
       <c r="CD77" s="2">
         <v>0</v>
       </c>
-      <c r="CE77" s="2" t="s">
+      <c r="CE77" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF77" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="CF77" s="4" t="s">
+      <c r="CG77" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="CG77" s="2" t="s">
+      <c r="CH77" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="CH77" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI77" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ77" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ77" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK77" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL77" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL77" s="2" t="s">
+      <c r="CM77" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="CM77" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN77" s="2" t="s">
         <v>96</v>
       </c>
@@ -23868,10 +23973,13 @@
         <v>96</v>
       </c>
       <c r="CR77" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS77" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:96" ht="15.75" customHeight="1">
+    <row r="78" spans="1:97" ht="15.75" customHeight="1">
       <c r="A78" s="2">
         <v>5130853450</v>
       </c>
@@ -24098,9 +24206,7 @@
         <v>96</v>
       </c>
       <c r="BZ78" s="4"/>
-      <c r="CA78" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA78" s="4"/>
       <c r="CB78" s="2">
         <v>0</v>
       </c>
@@ -24108,50 +24214,53 @@
         <v>0</v>
       </c>
       <c r="CD78" s="2">
-        <v>1</v>
-      </c>
-      <c r="CE78" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF78" s="4"/>
-      <c r="CG78" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE78" s="2">
+        <v>1</v>
+      </c>
+      <c r="CF78" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG78" s="4"/>
+      <c r="CH78" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH78" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI78" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ78" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ78" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK78" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL78" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL78" s="2" t="s">
+      <c r="CM78" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM78" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN78" s="2">
-        <v>0</v>
+      <c r="CN78" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO78" s="2">
         <v>0</v>
       </c>
       <c r="CP78" s="2">
-        <v>1</v>
-      </c>
-      <c r="CQ78" s="2" t="s">
-        <v>96</v>
+        <v>0</v>
+      </c>
+      <c r="CQ78" s="2">
+        <v>1</v>
       </c>
       <c r="CR78" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS78" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="1:96" ht="15.75" customHeight="1">
+    <row r="79" spans="1:97" ht="15.75" customHeight="1">
       <c r="A79" s="2">
         <v>5130585087</v>
       </c>
@@ -24382,9 +24491,7 @@
         <v>96</v>
       </c>
       <c r="BZ79" s="4"/>
-      <c r="CA79" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA79" s="4"/>
       <c r="CB79" s="2">
         <v>0</v>
       </c>
@@ -24394,48 +24501,51 @@
       <c r="CD79" s="2">
         <v>0</v>
       </c>
-      <c r="CE79" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF79" s="4"/>
-      <c r="CG79" s="2" t="s">
+      <c r="CE79" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG79" s="4"/>
+      <c r="CH79" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH79" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ79" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ79" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL79" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL79" s="2" t="s">
+      <c r="CM79" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM79" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN79" s="2">
-        <v>1</v>
+      <c r="CN79" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO79" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP79" s="2">
         <v>0</v>
       </c>
-      <c r="CQ79" s="2" t="s">
-        <v>96</v>
+      <c r="CQ79" s="2">
+        <v>0</v>
       </c>
       <c r="CR79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS79" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="1:96" ht="15.75" customHeight="1">
+    <row r="80" spans="1:97" ht="15.75" customHeight="1">
       <c r="A80" s="2">
         <v>5129544723</v>
       </c>
@@ -24664,43 +24774,41 @@
         <v>96</v>
       </c>
       <c r="BZ80" s="4"/>
-      <c r="CA80" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA80" s="4"/>
       <c r="CB80" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC80" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD80" s="2">
         <v>0</v>
       </c>
-      <c r="CE80" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF80" s="4"/>
-      <c r="CG80" s="2" t="s">
+      <c r="CE80" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF80" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG80" s="4"/>
+      <c r="CH80" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH80" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI80" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ80" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ80" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK80" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL80" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL80" s="2" t="s">
+      <c r="CM80" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM80" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN80" s="2" t="s">
         <v>96</v>
       </c>
@@ -24714,10 +24822,13 @@
         <v>96</v>
       </c>
       <c r="CR80" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS80" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="1:96" ht="15.75" customHeight="1">
+    <row r="81" spans="1:97" ht="15.75" customHeight="1">
       <c r="A81" s="2">
         <v>5129445376</v>
       </c>
@@ -24944,43 +25055,41 @@
         <v>96</v>
       </c>
       <c r="BZ81" s="4"/>
-      <c r="CA81" s="2">
-        <v>1</v>
-      </c>
+      <c r="CA81" s="4"/>
       <c r="CB81" s="2">
         <v>1</v>
       </c>
       <c r="CC81" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD81" s="2">
         <v>0</v>
       </c>
-      <c r="CE81" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF81" s="4"/>
-      <c r="CG81" s="2" t="s">
+      <c r="CE81" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF81" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG81" s="4"/>
+      <c r="CH81" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH81" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI81" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ81" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ81" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK81" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL81" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL81" s="2" t="s">
+      <c r="CM81" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="CM81" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN81" s="2" t="s">
         <v>96</v>
       </c>
@@ -24994,10 +25103,13 @@
         <v>96</v>
       </c>
       <c r="CR81" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS81" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="82" spans="1:96" ht="15.75" customHeight="1">
+    <row r="82" spans="1:97" ht="15.75" customHeight="1">
       <c r="A82" s="2">
         <v>5129007789</v>
       </c>
@@ -25224,60 +25336,61 @@
         <v>96</v>
       </c>
       <c r="BZ82" s="4"/>
-      <c r="CA82" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA82" s="4"/>
       <c r="CB82" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC82" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD82" s="2">
         <v>0</v>
       </c>
-      <c r="CE82" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF82" s="4"/>
-      <c r="CG82" s="2" t="s">
+      <c r="CE82" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF82" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG82" s="4"/>
+      <c r="CH82" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH82" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI82" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ82" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ82" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK82" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL82" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL82" s="2" t="s">
+      <c r="CM82" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM82" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN82" s="2">
-        <v>1</v>
+      <c r="CN82" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO82" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP82" s="2">
         <v>0</v>
       </c>
-      <c r="CQ82" s="2" t="s">
-        <v>96</v>
+      <c r="CQ82" s="2">
+        <v>0</v>
       </c>
       <c r="CR82" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS82" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:96" ht="15.75" customHeight="1">
+    <row r="83" spans="1:97" ht="15.75" customHeight="1">
       <c r="A83" s="2">
         <v>5128918703</v>
       </c>
@@ -25506,45 +25619,43 @@
         <v>96</v>
       </c>
       <c r="BZ83" s="4"/>
-      <c r="CA83" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA83" s="4"/>
       <c r="CB83" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC83" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD83" s="2">
         <v>0</v>
       </c>
-      <c r="CE83" s="2" t="s">
+      <c r="CE83" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF83" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="CF83" s="4" t="s">
+      <c r="CG83" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="CG83" s="2" t="s">
+      <c r="CH83" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH83" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI83" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ83" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ83" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK83" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL83" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL83" s="2" t="s">
+      <c r="CM83" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="CM83" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN83" s="2" t="s">
         <v>96</v>
       </c>
@@ -25558,10 +25669,13 @@
         <v>96</v>
       </c>
       <c r="CR83" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS83" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:96" ht="15.75" customHeight="1">
+    <row r="84" spans="1:97" ht="15.75" customHeight="1">
       <c r="A84" s="2">
         <v>5128827598</v>
       </c>
@@ -25788,9 +25902,7 @@
         <v>96</v>
       </c>
       <c r="BZ84" s="4"/>
-      <c r="CA84" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA84" s="4"/>
       <c r="CB84" s="2">
         <v>0</v>
       </c>
@@ -25800,13 +25912,13 @@
       <c r="CD84" s="2">
         <v>0</v>
       </c>
-      <c r="CE84" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF84" s="4"/>
-      <c r="CG84" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="CE84" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF84" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG84" s="4"/>
       <c r="CH84" s="2" t="s">
         <v>96</v>
       </c>
@@ -25838,10 +25950,13 @@
         <v>96</v>
       </c>
       <c r="CR84" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS84" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:96" ht="15.75" customHeight="1">
+    <row r="85" spans="1:97" ht="15.75" customHeight="1">
       <c r="A85" s="2">
         <v>5127824296</v>
       </c>
@@ -26068,11 +26183,11 @@
         <v>468</v>
       </c>
       <c r="BZ85" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="CA85" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="CA85" s="2">
-        <v>0</v>
-      </c>
       <c r="CB85" s="2">
         <v>0</v>
       </c>
@@ -26082,31 +26197,31 @@
       <c r="CD85" s="2">
         <v>0</v>
       </c>
-      <c r="CE85" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF85" s="4"/>
-      <c r="CG85" s="2" t="s">
+      <c r="CE85" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF85" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG85" s="4"/>
+      <c r="CH85" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH85" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI85" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ85" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ85" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK85" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL85" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL85" s="2" t="s">
+      <c r="CM85" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM85" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN85" s="2" t="s">
         <v>96</v>
       </c>
@@ -26120,10 +26235,13 @@
         <v>96</v>
       </c>
       <c r="CR85" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS85" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:96" ht="15.75" customHeight="1">
+    <row r="86" spans="1:97" ht="15.75" customHeight="1">
       <c r="A86" s="2">
         <v>5127397605</v>
       </c>
@@ -26350,11 +26468,9 @@
         <v>471</v>
       </c>
       <c r="BZ86" s="4"/>
-      <c r="CA86" s="2">
-        <v>1</v>
-      </c>
+      <c r="CA86" s="4"/>
       <c r="CB86" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC86" s="2">
         <v>0</v>
@@ -26362,48 +26478,51 @@
       <c r="CD86" s="2">
         <v>0</v>
       </c>
-      <c r="CE86" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF86" s="4"/>
-      <c r="CG86" s="2" t="s">
+      <c r="CE86" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF86" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG86" s="4"/>
+      <c r="CH86" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH86" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI86" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ86" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ86" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK86" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL86" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL86" s="2" t="s">
+      <c r="CM86" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM86" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN86" s="2">
-        <v>1</v>
+      <c r="CN86" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO86" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP86" s="2">
         <v>0</v>
       </c>
-      <c r="CQ86" s="2" t="s">
-        <v>96</v>
+      <c r="CQ86" s="2">
+        <v>0</v>
       </c>
       <c r="CR86" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS86" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="1:96" ht="15.75" customHeight="1">
+    <row r="87" spans="1:97" ht="15.75" customHeight="1">
       <c r="A87" s="2">
         <v>5127360831</v>
       </c>
@@ -26632,43 +26751,41 @@
         <v>96</v>
       </c>
       <c r="BZ87" s="4"/>
-      <c r="CA87" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA87" s="4"/>
       <c r="CB87" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC87" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD87" s="2">
         <v>0</v>
       </c>
-      <c r="CE87" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF87" s="4"/>
-      <c r="CG87" s="2" t="s">
+      <c r="CE87" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF87" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG87" s="4"/>
+      <c r="CH87" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH87" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI87" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ87" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ87" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK87" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL87" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL87" s="2" t="s">
+      <c r="CM87" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="CM87" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN87" s="2" t="s">
         <v>96</v>
       </c>
@@ -26682,10 +26799,13 @@
         <v>96</v>
       </c>
       <c r="CR87" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS87" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:96" ht="15.75" customHeight="1">
+    <row r="88" spans="1:97" ht="15.75" customHeight="1">
       <c r="A88" s="2">
         <v>5126995226</v>
       </c>
@@ -26912,9 +27032,7 @@
         <v>96</v>
       </c>
       <c r="BZ88" s="4"/>
-      <c r="CA88" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA88" s="4"/>
       <c r="CB88" s="2">
         <v>0</v>
       </c>
@@ -26924,13 +27042,13 @@
       <c r="CD88" s="2">
         <v>0</v>
       </c>
-      <c r="CE88" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF88" s="4"/>
-      <c r="CG88" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="CE88" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF88" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG88" s="4"/>
       <c r="CH88" s="2" t="s">
         <v>96</v>
       </c>
@@ -26962,10 +27080,13 @@
         <v>96</v>
       </c>
       <c r="CR88" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS88" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="1:96" ht="15.75" customHeight="1">
+    <row r="89" spans="1:97" ht="15.75" customHeight="1">
       <c r="A89" s="2">
         <v>5126927544</v>
       </c>
@@ -27192,9 +27313,7 @@
         <v>96</v>
       </c>
       <c r="BZ89" s="4"/>
-      <c r="CA89" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA89" s="4"/>
       <c r="CB89" s="2">
         <v>0</v>
       </c>
@@ -27204,13 +27323,13 @@
       <c r="CD89" s="2">
         <v>0</v>
       </c>
-      <c r="CE89" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF89" s="4"/>
-      <c r="CG89" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="CE89" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF89" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG89" s="4"/>
       <c r="CH89" s="2" t="s">
         <v>96</v>
       </c>
@@ -27242,10 +27361,13 @@
         <v>96</v>
       </c>
       <c r="CR89" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS89" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:96" ht="15.75" customHeight="1">
+    <row r="90" spans="1:97" ht="15.75" customHeight="1">
       <c r="A90" s="2">
         <v>5126033051</v>
       </c>
@@ -27472,43 +27594,41 @@
         <v>96</v>
       </c>
       <c r="BZ90" s="4"/>
-      <c r="CA90" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA90" s="4"/>
       <c r="CB90" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC90" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD90" s="2">
         <v>0</v>
       </c>
-      <c r="CE90" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF90" s="4"/>
-      <c r="CG90" s="2" t="s">
+      <c r="CE90" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF90" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG90" s="4"/>
+      <c r="CH90" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH90" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI90" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ90" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ90" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK90" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL90" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL90" s="2" t="s">
+      <c r="CM90" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="CM90" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN90" s="2" t="s">
         <v>96</v>
       </c>
@@ -27522,10 +27642,13 @@
         <v>96</v>
       </c>
       <c r="CR90" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS90" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="1:96" ht="15.75" customHeight="1">
+    <row r="91" spans="1:97" ht="15.75" customHeight="1">
       <c r="A91" s="2">
         <v>5125959897</v>
       </c>
@@ -27752,45 +27875,45 @@
         <v>481</v>
       </c>
       <c r="BZ91" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="CA91" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="CA91" s="2">
-        <v>0</v>
-      </c>
       <c r="CB91" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC91" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD91" s="2">
         <v>0</v>
       </c>
-      <c r="CE91" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF91" s="4"/>
-      <c r="CG91" s="2" t="s">
+      <c r="CE91" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF91" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG91" s="4"/>
+      <c r="CH91" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH91" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI91" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ91" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ91" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK91" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL91" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL91" s="2" t="s">
+      <c r="CM91" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM91" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN91" s="2" t="s">
         <v>96</v>
       </c>
@@ -27804,10 +27927,13 @@
         <v>96</v>
       </c>
       <c r="CR91" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS91" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:96" ht="15.75" customHeight="1">
+    <row r="92" spans="1:97" ht="15.75" customHeight="1">
       <c r="A92" s="2">
         <v>5125672350</v>
       </c>
@@ -28034,43 +28160,41 @@
         <v>96</v>
       </c>
       <c r="BZ92" s="4"/>
-      <c r="CA92" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA92" s="4"/>
       <c r="CB92" s="2">
         <v>0</v>
       </c>
       <c r="CC92" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD92" s="2">
-        <v>0</v>
-      </c>
-      <c r="CE92" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF92" s="4"/>
-      <c r="CG92" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CE92" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF92" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG92" s="4"/>
+      <c r="CH92" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH92" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI92" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ92" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ92" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK92" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL92" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL92" s="2" t="s">
+      <c r="CM92" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM92" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN92" s="2" t="s">
         <v>96</v>
       </c>
@@ -28084,10 +28208,13 @@
         <v>96</v>
       </c>
       <c r="CR92" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS92" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:96" ht="15.75" customHeight="1">
+    <row r="93" spans="1:97" ht="15.75" customHeight="1">
       <c r="A93" s="2">
         <v>5125568054</v>
       </c>
@@ -28314,62 +28441,63 @@
         <v>96</v>
       </c>
       <c r="BZ93" s="4"/>
-      <c r="CA93" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA93" s="4"/>
       <c r="CB93" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC93" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD93" s="2">
         <v>0</v>
       </c>
-      <c r="CE93" s="2" t="s">
+      <c r="CE93" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF93" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="CF93" s="4" t="s">
+      <c r="CG93" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="CG93" s="2" t="s">
+      <c r="CH93" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH93" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI93" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ93" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ93" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK93" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL93" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL93" s="2" t="s">
+      <c r="CM93" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="CM93" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN93" s="2">
-        <v>1</v>
+      <c r="CN93" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO93" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP93" s="2">
         <v>0</v>
       </c>
-      <c r="CQ93" s="2" t="s">
-        <v>96</v>
+      <c r="CQ93" s="2">
+        <v>0</v>
       </c>
       <c r="CR93" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS93" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="1:96" ht="15.75" customHeight="1">
+    <row r="94" spans="1:97" ht="15.75" customHeight="1">
       <c r="A94" s="2">
         <v>5125555057</v>
       </c>
@@ -28596,9 +28724,7 @@
         <v>96</v>
       </c>
       <c r="BZ94" s="4"/>
-      <c r="CA94" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA94" s="4"/>
       <c r="CB94" s="2">
         <v>0</v>
       </c>
@@ -28608,13 +28734,13 @@
       <c r="CD94" s="2">
         <v>0</v>
       </c>
-      <c r="CE94" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF94" s="4"/>
-      <c r="CG94" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="CE94" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF94" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG94" s="4"/>
       <c r="CH94" s="2" t="s">
         <v>96</v>
       </c>
@@ -28646,10 +28772,13 @@
         <v>96</v>
       </c>
       <c r="CR94" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS94" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="1:96" ht="15.75" customHeight="1">
+    <row r="95" spans="1:97" ht="15.75" customHeight="1">
       <c r="A95" s="2">
         <v>5125460681</v>
       </c>
@@ -28876,43 +29005,41 @@
         <v>96</v>
       </c>
       <c r="BZ95" s="4"/>
-      <c r="CA95" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA95" s="4"/>
       <c r="CB95" s="2">
         <v>0</v>
       </c>
       <c r="CC95" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD95" s="2">
-        <v>0</v>
-      </c>
-      <c r="CE95" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF95" s="4"/>
-      <c r="CG95" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CE95" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF95" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG95" s="4"/>
+      <c r="CH95" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH95" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI95" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ95" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ95" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK95" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL95" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL95" s="2" t="s">
+      <c r="CM95" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="CM95" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN95" s="2" t="s">
         <v>96</v>
       </c>
@@ -28926,10 +29053,13 @@
         <v>96</v>
       </c>
       <c r="CR95" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS95" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="1:96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:97" ht="15.75" customHeight="1">
       <c r="A96" s="2">
         <v>5125428973</v>
       </c>
@@ -29156,60 +29286,61 @@
         <v>96</v>
       </c>
       <c r="BZ96" s="4"/>
-      <c r="CA96" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA96" s="4"/>
       <c r="CB96" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC96" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD96" s="2">
         <v>0</v>
       </c>
-      <c r="CE96" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF96" s="4"/>
-      <c r="CG96" s="2" t="s">
+      <c r="CE96" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF96" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG96" s="4"/>
+      <c r="CH96" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH96" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI96" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ96" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ96" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK96" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL96" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL96" s="2" t="s">
+      <c r="CM96" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM96" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN96" s="2">
-        <v>1</v>
+      <c r="CN96" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO96" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP96" s="2">
         <v>0</v>
       </c>
-      <c r="CQ96" s="2" t="s">
-        <v>96</v>
+      <c r="CQ96" s="2">
+        <v>0</v>
       </c>
       <c r="CR96" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS96" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:96" ht="15.75" customHeight="1">
+    <row r="97" spans="1:97" ht="15.75" customHeight="1">
       <c r="A97" s="2">
         <v>5125416057</v>
       </c>
@@ -29438,60 +29569,63 @@
       <c r="BZ97" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="CA97" s="2">
-        <v>0</v>
+      <c r="CA97" s="4" t="s">
+        <v>496</v>
       </c>
       <c r="CB97" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC97" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD97" s="2">
         <v>0</v>
       </c>
-      <c r="CE97" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF97" s="4"/>
-      <c r="CG97" s="2" t="s">
+      <c r="CE97" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF97" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG97" s="4"/>
+      <c r="CH97" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH97" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI97" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ97" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ97" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK97" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL97" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL97" s="2" t="s">
+      <c r="CM97" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="CM97" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN97" s="2">
-        <v>1</v>
+      <c r="CN97" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO97" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP97" s="2">
         <v>0</v>
       </c>
-      <c r="CQ97" s="2" t="s">
-        <v>96</v>
+      <c r="CQ97" s="2">
+        <v>0</v>
       </c>
       <c r="CR97" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS97" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:96" ht="15.75" customHeight="1">
+    <row r="98" spans="1:97" ht="15.75" customHeight="1">
       <c r="A98" s="2">
         <v>5125372188</v>
       </c>
@@ -29718,9 +29852,7 @@
         <v>96</v>
       </c>
       <c r="BZ98" s="4"/>
-      <c r="CA98" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA98" s="4"/>
       <c r="CB98" s="2">
         <v>0</v>
       </c>
@@ -29730,33 +29862,33 @@
       <c r="CD98" s="2">
         <v>0</v>
       </c>
-      <c r="CE98" s="2" t="s">
+      <c r="CE98" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF98" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="CF98" s="4" t="s">
+      <c r="CG98" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="CG98" s="2" t="s">
+      <c r="CH98" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="CH98" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI98" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ98" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ98" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK98" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL98" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL98" s="2" t="s">
+      <c r="CM98" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM98" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN98" s="2" t="s">
         <v>96</v>
       </c>
@@ -29770,10 +29902,13 @@
         <v>96</v>
       </c>
       <c r="CR98" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS98" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:96" ht="15.75" customHeight="1">
+    <row r="99" spans="1:97" ht="15.75" customHeight="1">
       <c r="A99" s="2">
         <v>5125291297</v>
       </c>
@@ -30000,60 +30135,61 @@
         <v>96</v>
       </c>
       <c r="BZ99" s="4"/>
-      <c r="CA99" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA99" s="4"/>
       <c r="CB99" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC99" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD99" s="2">
-        <v>1</v>
-      </c>
-      <c r="CE99" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF99" s="4"/>
-      <c r="CG99" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE99" s="2">
+        <v>1</v>
+      </c>
+      <c r="CF99" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG99" s="4"/>
+      <c r="CH99" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="CH99" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI99" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ99" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ99" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK99" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL99" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL99" s="2" t="s">
+      <c r="CM99" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="CM99" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN99" s="2">
-        <v>1</v>
+      <c r="CN99" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO99" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP99" s="2">
         <v>0</v>
       </c>
-      <c r="CQ99" s="2" t="s">
-        <v>96</v>
+      <c r="CQ99" s="2">
+        <v>0</v>
       </c>
       <c r="CR99" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS99" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:96" ht="15.75" customHeight="1">
+    <row r="100" spans="1:97" ht="15.75" customHeight="1">
       <c r="A100" s="2">
         <v>5125200515</v>
       </c>
@@ -30280,9 +30416,7 @@
         <v>96</v>
       </c>
       <c r="BZ100" s="4"/>
-      <c r="CA100" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA100" s="4"/>
       <c r="CB100" s="2">
         <v>0</v>
       </c>
@@ -30292,13 +30426,13 @@
       <c r="CD100" s="2">
         <v>0</v>
       </c>
-      <c r="CE100" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF100" s="4"/>
-      <c r="CG100" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="CE100" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF100" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG100" s="4"/>
       <c r="CH100" s="2" t="s">
         <v>96</v>
       </c>
@@ -30330,10 +30464,13 @@
         <v>96</v>
       </c>
       <c r="CR100" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS100" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:96" ht="15.75" customHeight="1">
+    <row r="101" spans="1:97" ht="15.75" customHeight="1">
       <c r="A101" s="2">
         <v>5125164889</v>
       </c>
@@ -30560,11 +30697,11 @@
         <v>508</v>
       </c>
       <c r="BZ101" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="CA101" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="CA101" s="2">
-        <v>0</v>
-      </c>
       <c r="CB101" s="2">
         <v>0</v>
       </c>
@@ -30574,33 +30711,33 @@
       <c r="CD101" s="2">
         <v>0</v>
       </c>
-      <c r="CE101" s="2" t="s">
+      <c r="CE101" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF101" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="CF101" s="4" t="s">
+      <c r="CG101" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="CG101" s="2" t="s">
+      <c r="CH101" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH101" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI101" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ101" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ101" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK101" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL101" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL101" s="2" t="s">
+      <c r="CM101" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM101" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN101" s="2" t="s">
         <v>96</v>
       </c>
@@ -30614,10 +30751,13 @@
         <v>96</v>
       </c>
       <c r="CR101" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS101" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="1:96" ht="15.75" customHeight="1">
+    <row r="102" spans="1:97" ht="15.75" customHeight="1">
       <c r="A102" s="2">
         <v>5125070122</v>
       </c>
@@ -30846,11 +30986,11 @@
         <v>516</v>
       </c>
       <c r="BZ102" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="CA102" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="CA102" s="2">
-        <v>0</v>
-      </c>
       <c r="CB102" s="2">
         <v>0</v>
       </c>
@@ -30860,48 +31000,51 @@
       <c r="CD102" s="2">
         <v>0</v>
       </c>
-      <c r="CE102" s="2" t="s">
+      <c r="CE102" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF102" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="CF102" s="4"/>
-      <c r="CG102" s="2" t="s">
+      <c r="CG102" s="4"/>
+      <c r="CH102" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH102" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI102" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ102" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ102" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK102" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL102" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="CL102" s="2" t="s">
+      <c r="CM102" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="CM102" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN102" s="2">
-        <v>1</v>
+      <c r="CN102" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO102" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP102" s="2">
         <v>0</v>
       </c>
-      <c r="CQ102" s="2" t="s">
-        <v>96</v>
+      <c r="CQ102" s="2">
+        <v>0</v>
       </c>
       <c r="CR102" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS102" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="103" spans="1:96" ht="15.75" customHeight="1">
+    <row r="103" spans="1:97" ht="15.75" customHeight="1">
       <c r="A103" s="2">
         <v>5125043003</v>
       </c>
@@ -31128,9 +31271,7 @@
         <v>96</v>
       </c>
       <c r="BZ103" s="4"/>
-      <c r="CA103" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA103" s="4"/>
       <c r="CB103" s="2">
         <v>0</v>
       </c>
@@ -31140,13 +31281,13 @@
       <c r="CD103" s="2">
         <v>0</v>
       </c>
-      <c r="CE103" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF103" s="4"/>
-      <c r="CG103" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="CE103" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF103" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG103" s="4"/>
       <c r="CH103" s="2" t="s">
         <v>96</v>
       </c>
@@ -31178,10 +31319,13 @@
         <v>96</v>
       </c>
       <c r="CR103" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS103" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="104" spans="1:96" ht="15.75" customHeight="1">
+    <row r="104" spans="1:97" ht="15.75" customHeight="1">
       <c r="A104" s="2">
         <v>5125014922</v>
       </c>
@@ -31410,45 +31554,43 @@
         <v>96</v>
       </c>
       <c r="BZ104" s="4"/>
-      <c r="CA104" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA104" s="4"/>
       <c r="CB104" s="2">
         <v>0</v>
       </c>
       <c r="CC104" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD104" s="2">
-        <v>0</v>
-      </c>
-      <c r="CE104" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF104" s="4"/>
-      <c r="CG104" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CE104" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF104" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG104" s="4"/>
+      <c r="CH104" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH104" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI104" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ104" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ104" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK104" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL104" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL104" s="2" t="s">
+      <c r="CM104" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM104" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN104" s="2">
-        <v>0</v>
+      <c r="CN104" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO104" s="2">
         <v>0</v>
@@ -31456,14 +31598,17 @@
       <c r="CP104" s="2">
         <v>0</v>
       </c>
-      <c r="CQ104" s="2" t="s">
+      <c r="CQ104" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR104" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="CR104" s="2" t="s">
+      <c r="CS104" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="105" spans="1:96" ht="15.75" customHeight="1">
+    <row r="105" spans="1:97" ht="15.75" customHeight="1">
       <c r="A105" s="2">
         <v>5125004720</v>
       </c>
@@ -31690,9 +31835,7 @@
         <v>96</v>
       </c>
       <c r="BZ105" s="4"/>
-      <c r="CA105" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA105" s="4"/>
       <c r="CB105" s="2">
         <v>0</v>
       </c>
@@ -31702,31 +31845,31 @@
       <c r="CD105" s="2">
         <v>0</v>
       </c>
-      <c r="CE105" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF105" s="4"/>
-      <c r="CG105" s="2" t="s">
+      <c r="CE105" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF105" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG105" s="4"/>
+      <c r="CH105" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH105" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI105" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ105" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ105" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK105" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL105" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL105" s="2" t="s">
+      <c r="CM105" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM105" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN105" s="2" t="s">
         <v>96</v>
       </c>
@@ -31740,10 +31883,13 @@
         <v>96</v>
       </c>
       <c r="CR105" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS105" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="106" spans="1:96" ht="15.75" customHeight="1">
+    <row r="106" spans="1:97" ht="15.75" customHeight="1">
       <c r="A106" s="2">
         <v>5125003536</v>
       </c>
@@ -31970,43 +32116,41 @@
         <v>96</v>
       </c>
       <c r="BZ106" s="4"/>
-      <c r="CA106" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA106" s="4"/>
       <c r="CB106" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC106" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD106" s="2">
         <v>0</v>
       </c>
-      <c r="CE106" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF106" s="4"/>
-      <c r="CG106" s="2" t="s">
+      <c r="CE106" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF106" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG106" s="4"/>
+      <c r="CH106" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH106" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI106" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ106" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ106" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK106" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL106" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL106" s="2" t="s">
+      <c r="CM106" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM106" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN106" s="2" t="s">
         <v>96</v>
       </c>
@@ -32020,10 +32164,13 @@
         <v>96</v>
       </c>
       <c r="CR106" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS106" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="107" spans="1:96" ht="15.75" customHeight="1">
+    <row r="107" spans="1:97" ht="15.75" customHeight="1">
       <c r="A107" s="2">
         <v>5124998573</v>
       </c>
@@ -32252,43 +32399,41 @@
         <v>96</v>
       </c>
       <c r="BZ107" s="4"/>
-      <c r="CA107" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA107" s="4"/>
       <c r="CB107" s="2">
         <v>0</v>
       </c>
       <c r="CC107" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD107" s="2">
-        <v>0</v>
-      </c>
-      <c r="CE107" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF107" s="4"/>
-      <c r="CG107" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CE107" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF107" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG107" s="4"/>
+      <c r="CH107" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH107" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI107" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ107" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ107" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK107" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL107" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL107" s="2" t="s">
+      <c r="CM107" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="CM107" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN107" s="2" t="s">
         <v>96</v>
       </c>
@@ -32302,10 +32447,13 @@
         <v>96</v>
       </c>
       <c r="CR107" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS107" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="108" spans="1:96" ht="15.75" customHeight="1">
+    <row r="108" spans="1:97" ht="15.75" customHeight="1">
       <c r="A108" s="2">
         <v>5124825579</v>
       </c>
@@ -32532,43 +32680,41 @@
         <v>96</v>
       </c>
       <c r="BZ108" s="4"/>
-      <c r="CA108" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA108" s="4"/>
       <c r="CB108" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC108" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD108" s="2">
         <v>0</v>
       </c>
-      <c r="CE108" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF108" s="4"/>
-      <c r="CG108" s="2" t="s">
+      <c r="CE108" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF108" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG108" s="4"/>
+      <c r="CH108" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="CH108" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI108" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ108" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ108" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK108" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL108" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL108" s="2" t="s">
+      <c r="CM108" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM108" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN108" s="2" t="s">
         <v>96</v>
       </c>
@@ -32582,10 +32728,13 @@
         <v>96</v>
       </c>
       <c r="CR108" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS108" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="109" spans="1:96" ht="15.75" customHeight="1">
+    <row r="109" spans="1:97" ht="15.75" customHeight="1">
       <c r="A109" s="2">
         <v>5124024829</v>
       </c>
@@ -32814,45 +32963,45 @@
         <v>547</v>
       </c>
       <c r="BZ109" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="CA109" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="CA109" s="2">
-        <v>1</v>
-      </c>
       <c r="CB109" s="2">
         <v>1</v>
       </c>
       <c r="CC109" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD109" s="2">
         <v>0</v>
       </c>
-      <c r="CE109" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF109" s="4"/>
-      <c r="CG109" s="2" t="s">
+      <c r="CE109" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF109" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG109" s="4"/>
+      <c r="CH109" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH109" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI109" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ109" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ109" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK109" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL109" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL109" s="2" t="s">
+      <c r="CM109" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM109" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN109" s="2" t="s">
         <v>96</v>
       </c>
@@ -32866,10 +33015,13 @@
         <v>96</v>
       </c>
       <c r="CR109" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS109" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="110" spans="1:96" ht="15.75" customHeight="1">
+    <row r="110" spans="1:97" ht="15.75" customHeight="1">
       <c r="A110" s="2">
         <v>5123984358</v>
       </c>
@@ -33098,11 +33250,11 @@
         <v>552</v>
       </c>
       <c r="BZ110" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="CA110" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="CA110" s="2">
-        <v>0</v>
-      </c>
       <c r="CB110" s="2">
         <v>0</v>
       </c>
@@ -33112,33 +33264,33 @@
       <c r="CD110" s="2">
         <v>0</v>
       </c>
-      <c r="CE110" s="2" t="s">
+      <c r="CE110" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF110" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="CF110" s="4" t="s">
+      <c r="CG110" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="CG110" s="2" t="s">
+      <c r="CH110" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="CH110" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI110" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ110" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ110" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK110" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL110" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL110" s="2" t="s">
+      <c r="CM110" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM110" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN110" s="2" t="s">
         <v>96</v>
       </c>
@@ -33152,10 +33304,13 @@
         <v>96</v>
       </c>
       <c r="CR110" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS110" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="111" spans="1:96" ht="15.75" customHeight="1">
+    <row r="111" spans="1:97" ht="15.75" customHeight="1">
       <c r="A111" s="2">
         <v>5123468094</v>
       </c>
@@ -33384,43 +33539,41 @@
         <v>96</v>
       </c>
       <c r="BZ111" s="4"/>
-      <c r="CA111" s="2">
-        <v>1</v>
-      </c>
+      <c r="CA111" s="4"/>
       <c r="CB111" s="2">
         <v>1</v>
       </c>
       <c r="CC111" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD111" s="2">
         <v>0</v>
       </c>
-      <c r="CE111" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF111" s="4"/>
-      <c r="CG111" s="2" t="s">
+      <c r="CE111" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF111" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG111" s="4"/>
+      <c r="CH111" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH111" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI111" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ111" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ111" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK111" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL111" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL111" s="2" t="s">
+      <c r="CM111" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM111" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CN111" s="2" t="s">
         <v>96</v>
       </c>
@@ -33434,10 +33587,13 @@
         <v>96</v>
       </c>
       <c r="CR111" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS111" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="112" spans="1:96" ht="15.75" customHeight="1">
+    <row r="112" spans="1:97" ht="15.75" customHeight="1">
       <c r="A112" s="2">
         <v>5123330797</v>
       </c>
@@ -33664,9 +33820,7 @@
         <v>96</v>
       </c>
       <c r="BZ112" s="4"/>
-      <c r="CA112" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA112" s="4"/>
       <c r="CB112" s="2">
         <v>0</v>
       </c>
@@ -33676,13 +33830,13 @@
       <c r="CD112" s="2">
         <v>0</v>
       </c>
-      <c r="CE112" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF112" s="4"/>
-      <c r="CG112" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="CE112" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF112" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG112" s="4"/>
       <c r="CH112" s="2" t="s">
         <v>96</v>
       </c>
@@ -33714,10 +33868,13 @@
         <v>96</v>
       </c>
       <c r="CR112" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS112" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:96" ht="15.75" customHeight="1">
+    <row r="113" spans="1:97" ht="15.75" customHeight="1">
       <c r="A113" s="2">
         <v>5122497507</v>
       </c>
@@ -33948,11 +34105,11 @@
         <v>566</v>
       </c>
       <c r="BZ113" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="CA113" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="CA113" s="2">
-        <v>0</v>
-      </c>
       <c r="CB113" s="2">
         <v>0</v>
       </c>
@@ -33962,48 +34119,51 @@
       <c r="CD113" s="2">
         <v>0</v>
       </c>
-      <c r="CE113" s="2" t="s">
+      <c r="CE113" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF113" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="CF113" s="4"/>
-      <c r="CG113" s="2" t="s">
+      <c r="CG113" s="4"/>
+      <c r="CH113" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CH113" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI113" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ113" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ113" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK113" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL113" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL113" s="2" t="s">
+      <c r="CM113" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="CM113" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN113" s="2">
-        <v>1</v>
+      <c r="CN113" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO113" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP113" s="2">
         <v>0</v>
       </c>
-      <c r="CQ113" s="2" t="s">
-        <v>96</v>
+      <c r="CQ113" s="2">
+        <v>0</v>
       </c>
       <c r="CR113" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS113" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="114" spans="1:96" ht="15.75" customHeight="1">
+    <row r="114" spans="1:97" ht="15.75" customHeight="1">
       <c r="A114" s="2">
         <v>5122148133</v>
       </c>
@@ -34230,9 +34390,7 @@
         <v>96</v>
       </c>
       <c r="BZ114" s="4"/>
-      <c r="CA114" s="2">
-        <v>0</v>
-      </c>
+      <c r="CA114" s="4"/>
       <c r="CB114" s="2">
         <v>0</v>
       </c>
@@ -34242,64 +34400,69 @@
       <c r="CD114" s="2">
         <v>0</v>
       </c>
-      <c r="CE114" s="2" t="s">
+      <c r="CE114" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF114" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="CF114" s="4" t="s">
+      <c r="CG114" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="CG114" s="2" t="s">
+      <c r="CH114" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="CH114" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CI114" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ114" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ114" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="CK114" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL114" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CL114" s="2" t="s">
+      <c r="CM114" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CM114" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CN114" s="2">
-        <v>1</v>
+      <c r="CN114" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="CO114" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP114" s="2">
         <v>0</v>
       </c>
-      <c r="CQ114" s="2" t="s">
-        <v>96</v>
+      <c r="CQ114" s="2">
+        <v>0</v>
       </c>
       <c r="CR114" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS114" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="115" spans="1:96" ht="15.75" customHeight="1">
+    <row r="115" spans="1:97" ht="15.75" customHeight="1">
       <c r="M115" s="7"/>
       <c r="AU115" s="8"/>
       <c r="BC115" s="8"/>
       <c r="BO115" s="8"/>
       <c r="BZ115" s="8"/>
-      <c r="CF115" s="8"/>
+      <c r="CA115" s="8"/>
+      <c r="CG115" s="8"/>
     </row>
-    <row r="116" spans="1:96" ht="15.75" customHeight="1">
+    <row r="116" spans="1:97" ht="15.75" customHeight="1">
       <c r="M116" s="7"/>
       <c r="AU116" s="8"/>
       <c r="BC116" s="8"/>
       <c r="BO116" s="8"/>
       <c r="BZ116" s="8"/>
-      <c r="CF116" s="8"/>
+      <c r="CA116" s="8"/>
+      <c r="CG116" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -34315,6 +34478,7 @@
     <hyperlink ref="AH1" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
